--- a/data/jk_cwshd_required_test.xlsx
+++ b/data/jk_cwshd_required_test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCAEAE2-A0FF-4F45-9AAC-5B3ECF8B6E44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5504F4A6-95BA-4F46-9EC0-7B52D753B03A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="500" windowWidth="27220" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>/api/v1/jkjr/shd/credit/apply</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>前置条件</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -4487,10 +4483,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>/api/v1/jkjr/shd/project/apply</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -6408,6 +6400,1285 @@
       </rPr>
       <t>entityInfo.legalPersonPhone</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>bindingCardInfo.bankCode</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>bindingCardInfo.bankNameSub</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>bindingCardInfo.bankCardNo</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>bindingCardInfo.bankCardAccountType</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>bindingCardInfo.bankPhone</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-非</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>imageInfo.salesContractImage</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-非</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.isChangeForLegalPerson</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-非</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.registerAddressProvince</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-非</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.registerAddressCity</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-非</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.registerAddressBorough</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-非</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.isChainInstitution</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-非</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.brandName</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-非</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.authorisedRepresentative</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-非</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.legalPersonIsDoctor</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-非</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.proprietorIsDoctor</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>imageInfo.imageInfo</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>creditInfo.creditInfo</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>applyInfo.applyInfo</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.personalInfo</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-非</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>contactInfo.contactInfo</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.entityInfo</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>applyInfo.applyInfo</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>loanInfo.loanInfo</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>bindingCardInfo.bindingCardInfo</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>cardInfo.cardInfo</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.personalInfo</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>imageInfo.imageInfo</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.entityInfo</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/jkjr/cwd/credit/apply</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"sourceCode": "jkjr",
+	"channel": "jkjr",
+	"sourceUserId": "1234567890000",
+	"transactionId": "1234567890000",
+	"serviceSn": "1234567890000",
+	"creditInfo": {
+		"sourceCreditAmt": 50000.00,
+		"sourceCreditRate": 0.12000,
+		"auditResult": 1
+	},
+	"applyInfo": {
+		"applyTime": "2020-05-06 12:30:30",
+		"productGroup": 1122,
+		"applySource": "api",
+		"financeChannel": 1
+	},
+	"personalInfo": {
+		"custName": "张三",
+		"cardNum": "110100199010010001",
+		"phone": "13800138001",
+		"sex": "M",
+		"age": 25,
+		"maritalStatus": 1,
+		"hasChildren": "Y",
+		"fourVerifyResult": "Y",
+		"liveAddressProvince": "110100",
+		"liveAddressCity": "110100",
+		"liveAddressBorough": "110500",
+		"liveDetailAddress": "北京市海淀区xxx街道xxx小区xxx号楼xxx层xxx室",
+		"monthIncome": 5,
+		"personalEmail": "zhangsan@test.com",
+		"cardValidDate": "2029-12-10-9999-09-09",
+		"isLocalRigster": "Y",
+		"personalPurchaseHouse": 1,
+		"livingYear": 1,
+		"applicantClinicRelationship": 1,
+		"isDoctor": 1,
+		"workingYear": 5,
+		"isHighRiskArea": "Y"
+	},
+	"contactInfo": {
+		"spouseName": "李四",
+		"spouseCardNum": "110100199010010002",
+		"firstContactRelationship": 2,
+		"firstContactName": "李四",
+		"firstContactCardNum": "110100199010010002",
+		"firstContactPhone": "13800138002"
+	},
+	"entityInfo": {
+		"manageTime": 0,
+		"monitorDevice": "检查设备",
+		"hasCertificateNumberOfPeople": 1,
+		"consultationRoomNumber": 1,
+		"doctorNumber": 1,
+		"monthPatients": 1,
+		"manageAddressProvince": "110100",
+		"manageAddressCity": "110100",
+		"manageAddressBorough": "110500",
+		"manageDetailAddress": "北京市海淀区xxx街道xxx小区xxx号楼xxx层xxx室",
+		"isChainInstitution": "Y",
+		"chainInstitutionNumber": 2,
+		"isChangeForLegalPerson": 1,
+		"clinicName": "医院名称",
+		"supplierUnifiedSocialCreditCode": "48519923",
+		"unifiedSocialCreditCode": "5689491",
+		"permitRegistrationNumber": "54001012345",
+		"hospitalCategory": 1,
+		"isThreeCertificatesInOne": "Y",
+		"corpType": 1,
+		"registeredAssets": 100.05,
+		"isAddressConsistent": "Y",
+		"registerAddressProvince": "110100",
+		"registerAddressCity": "110100",
+		"registerAddressBorough": "110500",
+		"registerDetailAddress": "北京市海淀区xxx街道xxx小区xxx号楼xxx层xxx室",
+		"cityGrading": 1,
+		"businessLicenseValidDate": "2029-12-10-9999-09-09",
+		"openingDate": "2021-02-01",
+		"establishYears": 3,
+		"oldLegalPersonName": "原法人",
+		"brandName": "品牌名称",
+		"annualRunningWater": 10.11,
+		"operateSiteOwnership": 1,
+		"legalPersonName": "法人",
+		"legalPersonIdcard": "110100199010010002",
+		"legalPersonPhone": "13800138002",
+		"decorateGrade": 1,
+		"locationGrade": 1,
+		"legalPersonPhoneRealName": "Y",
+		"isSamePersonForProprietorAndLegal": "Y",
+		"proprietorRealName": "实际经营者",
+		"proprietorRealIdCardNo": "372301199509074811",
+		"proprietorRealPhone": "15533330101",
+		"proprietorIsPhoneRealName": "Y",
+		"legalPersonIsDoctor": 1,
+		"proprietorIsDoctor": 1,
+		"shareholderIsDoctor": 1,
+		"accessWay": 1,
+		"supplierName": "供应商1,供应商2",
+		"floorSpace": 21.55,
+		"staffOnActiveDutyNum": 1
+	},
+	"imageInfo": {
+		"frontPhotoOfIDCard": "http://5b0988e595225.cdn.sohucs.com/images/20190703/213be8a9118d46978208d7f8c5eefa50.jpeg",
+		"backPhotoOfIDCard": "http://5b0988e595225.cdn.sohucs.com/images/20190711/c8fb8a8d370b4c1eb03e1c5cc0cc95a8.jpeg",
+		"livingVerificationScreenshot": "http://www.99danji.com/uploadfile/2015/0921/20150921103659839.png",
+		"graduationCertificate": "http://5b0988e595225.cdn.sohucs.com/images/20170823/6c785864112d4345b55e4cea2b13c74b.jpg",
+		"propertyCertificate": "http://5b0988e595225.cdn.sohucs.com/images/20180203/f052f7850d954d7894961aec83d964d1.jpeg",
+		"medicalPracticeCertificate": "http://5b0988e595225.cdn.sohucs.com/images/20180901/85cf11b2b21c4bbd836eab3d966477cc.jpeg",
+		"shareholderCertificate": "https://gss0.baidu.com/9vo3dSag_xI4khGko9WTAnF6hhy/zhidao/wh%3D600%2C800/sign=f0b363f254ee3d6d22938fcd7326411a/5bafa40f4bfbfbed0aea462a75f0f736afc31f37.jpg",
+		"medicalInstitutionLicense": "https://cn.bing.com/images/search?view=detailV2&amp;ccid=lOvyrMAU&amp;id=53EBC385D85E86D272FF006CB52CCA789897B51F&amp;thid=OIP.lOvyrMAU9tvaCy00NgxQtQHaE6&amp;mediaurl=https%3a%2f%2fpic4.zhimg.com%2fv2-bc7577240243deaa0d1e7b381363a3b3_b.jpg",
+		"businessLicense": "http://baoliao.oeeee.com/upload/2/2014-0/650XH/62df72e8-a41a-4386-973b-f8b93e98d8f0.jpg",
+		"enterpriseEnvironment": "https://th.bing.com/th/id/Re5d8c49cbd3a02de7b984e2c8463d5ed?rik=rMJIVSGbGKPmJg&amp;riu=http%3a%2f%2fwww.zdmd.com.cn%2fupload%2f2016-4%2f2016041951847793.JPG",
+		"enterpriseFacadePhotos": "https://image2.znzmo.com/JkrEi44k7M.jpg",
+		"consultationRoomPhotos": "https://img.zcool.cn/community/01b9a25c39ab32a80121fbb06c85c4.jpg@1280w_1l_2o_100sh.jpg",
+		"oldLegalPersonNamePrintscreen": "https://th.bing.com/th/id/R0d60a1f8f2774f0f66ac24af3d91ae57?rik=%2fmjxUwwz8ni8rQ&amp;riu=http%3a%2f%2fwww.95ye.com%2fuploads%2fpictures%2f2018-10%2f1_1540692493.png",
+		"propertyInLandCertificate": "https://th.bing.com/th/id/R4e04ad28b45d4ce90213e12d5938ad4e?rik=Pyb7bEUIxVPhcQ&amp;riu=http%3a%2f%2fpmo31310f.pic36.websiteonline.cn%2fupload%2f2qpc.jpg"
+	}
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/jkjr/cwd/project/apply</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -6415,50 +7686,30 @@
 	"serviceSn": "1234567890000",
 	"channel": "jkjr",
 	"sourceCode": "jkjr",
-	"transactionId": "9892188648115347405",
-	"sourceUserId": "36458",
-	"sourceProjectId": "378457",
+	"sourceProjectId": "1234567890000",
+	"transactionId": "1234567890000",
+	"sourceUserId": "1234567890000",
 	"applyInfo": {
-		"applyTime": "2021-02-24 10:28:16",
-		"applyAmount": 50000,
-		"applyTerm": 6,
+		"applyTime": "2020-05-06 12:30:30",
+		"applyAmount": 50000.00,
+		"applyTerm": 12,
 		"applicationPeriod": 0,
-		"productCode": "FQ_JK_CKSHD",
-		"productGroup": 1121,
+		"productCode": "FQ_JK_CWSHD",
+		"productGroup": "1122",
 		"applySource": "api",
 		"financeChannel": 1
 	},
 	"loanInfo": {
-		"loanAmount": 50000,
-		"loanTerm": 6,
+		"loanAmount": 50000.00,
+		"loanTerm": 12,
 		"cycleInterval": 0,
-		"assetInterestRate": 0.100000,
+		"assetInterestRate": 0.12000,
 		"assetInterestRatePeriod": 1,
-		"userInterestRate": 0.100000,
+		"userInterestRate": 0.12000,
 		"userInterestRatePeriod": 1,
 		"repayMethod": "AI",
+		"discountAmount": 0,
 		"discountRate": 0
-	},
-	"cardInfo": {
-		"accountProp": 1,
-		"bankCode": "CMB",
-		"bankNameSub": "招商银行北京分行",
-		"bankCardNo": "6214888888888888888",
-		"bankCardAccountType": 0,
-		"bankPhone": "13800138001",
-		"corporateAccountName": "公司",
-		"unifiedSocialCreditCode": "1234567890000",
-		"openAccountProvince": "110100",
-		"openAccountCity": "110100",
-		"openAccountBankNameSub": "招商银行北京分行"
-	},
-	"personalInfo": {
-		"cardNum": "653225200008278882",
-		"custName": "李瑜",
-		"phone": "15516298131"
-	},
-	"imageInfo": {
-		"salesContractImage": "https://ss0.bdstatic.com/70cFvHSh_Q1YnxGkpoWK1HF6hhy/it/u=4250058738,780121024&amp;fm=11&amp;gp=0.jpg"
 	},
 	"bindingCardInfo": {
 		"bankCode": "86",
@@ -6467,1330 +7718,107 @@
 		"bankCardAccountType": 0,
 		"bankPhone": "13800138001"
 	},
+	"cardInfo": {
+		"accountProp": 1,
+		"bankCode": "86",
+		"bankNameSub": "招商银行北京分行",
+		"bankCardNo": "6214888888888888888",
+		"bankCardAccountType": 0,
+		"bankPhone": "13800138001",
+		"corporateAccountName": "xxxx公司",
+		"unifiedSocialCreditCode": "1234567890000",
+		"openAccountProvince": "110100",
+		"openAccountCity": "110100",
+		"openAccountBankNameSub": "xx银行yy分行"
+	},
+	"personalInfo": {
+		"fourVerifyResult": "Y",
+		"faceRecognition": "Y",
+		"identityCheckResult": "Y",
+		"cardNum": "110100199010010001",
+		"custName": "张三",
+		"phone": "13800138001"
+	},
+	"imageInfo": {
+		"salesContractImage": "https://ss0.bdstatic.com/70cFvHSh_Q1YnxGkpoWK1HF6hhy/it/u=4250058738,780121024&amp;fm=11&amp;gp=0.jpg",
+		"livingVerificationScreenshot": "http://www.99danji.com/uploadfile/2015/0921/20150921103659839.png",
+		"medicalInstitutionLicense": "https://pic.baike.soso.com/p/20121212/20121212135050-180212384.jpg",
+		"shareholderCertificate": "https://n.sinaimg.cn/translate/553/w580h773/20200514/c41c-itriats0842112.jpg",
+		"medicalPracticeCertificate": "http://5b0988e595225.cdn.sohucs.com/images/20180901/85cf11b2b21c4bbd836eab3d966477cc.jpeg",
+		"businessLicense": "http://baoliao.oeeee.com/upload/2/2014-0/650XH/62df72e8-a41a-4386-973b-f8b93e98d8f0.jpg",
+		"enterpriseEnvironment": "https://th.bing.com/th/id/Re5d8c49cbd3a02de7b984e2c8463d5ed?rik=rMJIVSGbGKPmJg&amp;riu=http%3a%2f%2fwww.zdmd.com.cn%2fupload%2f2016-4%2f2016041951847793.JPG",
+		"enterpriseFacadePhotos": "https://image2.znzmo.com/JkrEi44k7M.jpg",
+		"consultationRoomPhotos": "https://img.zcool.cn/community/01b9a25c39ab32a80121fbb06c85c4.jpg@1280w_1l_2o_100sh.jpg",
+		"oldLegalPersonNamePrintscreen": "https://th.bing.com/th/id/R0d60a1f8f2774f0f66ac24af3d91ae57?rik=%2fmjxUwwz8ni8rQ&amp;riu=http%3a%2f%2fwww.95ye.com%2fuploads%2fpictures%2f2018-10%2f1_1540692493.png",
+		"propertyInLandCertificate": "https://th.bing.com/th/id/R4e04ad28b45d4ce90213e12d5938ad4e?rik=Pyb7bEUIxVPhcQ&amp;riu=http%3a%2f%2fpmo31310f.pic36.websiteonline.cn%2fupload%2f2qpc.jpg"
+	},
 	"entityInfo": {
-		"merchantDiscountRate": 0.120000,
-		"supplierName": "供应商名称",
-		"supplierUnifiedSocialCreditCode": "1823994",
+		"manageTime": 5,
+		"monitorDevice": "宠物医院设备",
+		"hasCertificateNumberOfPeople": 1,
+		"consultationRoomNumber": 1,
+		"doctorNumber": 1,
+		"monthPatients": 1,
+		"manageAddressProvince": "110100",
+		"manageAddressCity": "110100",
+		"manageAddressBorough": "110500",
+		"manageDetailAddress": "北京市海淀区xxx街道xxx小区xxx号楼xxx层xxx室",
+		"isChainInstitution": "Y",
+		"isChangeForLegalPerson": 1,
+		"merchantDiscountRate": 0.120005,
+		"supplierName": "XXX",
+		"supplierUnifiedSocialCreditCode": "9499123004",
 		"productInfoList": [{
 			"productName": "产品名称",
 			"brandName": "品牌名称",
-			"productModel": "产品型号",
 			"productQuantity": 10,
-			"productUnitPrice": 100
+			"productUnitPrice": 100.55
 		}],
-		"deliveryAddressBorough": "110105",
+		"deliveryAddressBorough": "110500",
 		"deliveryAddressCity": "110100",
 		"deliveryAddressProvince": "110100",
 		"deliveryDetailAddress": "北京市海淀区xxx街道xxx小区xxx号楼xxx层xxx室",
-		"consigneeName": "收货人",
+		"permitRegistrationNumber": "5849134",
+		"consigneeName": "收货联系人",
+		"hospitalCategory": 1,
 		"consigneePhone": "13800138003",
-		"clinicName": "诊所名",
-		"clinicUnifiedSocialCreditCode": "XX",
-		"legalPersonName": "法人",
-		"legalPersonIdcard": "372301199509074811",
-		"legalPersonPhone": "13800138002"
-	}
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"sourceCode": "jkjr",
-	"channel": "jkjr",
-	"sourceUserId": "54658",
-	"transactionId": "8180668929062786349",
-	"serviceSn": "8033795954",
-	"creditInfo": {
-		"sourceCreditAmt": 300000,
-		"sourceCreditRate": 0.12,
-		"auditResult": 1
-	},
-	"applyInfo": {
-		"applyTime": "2021-03-02 15:46:43",
-		"productGroup": 1121,
-		"applySource": "api",
-		"financeChannel": 1
-	},
-	"personalInfo": {
-		"custName": "郭淑兰",
-		"cardNum": "141034197503167732",
-		"phone": "15537896229",
-		"sex": "M",
-		"age": 25,
-		"maritalStatus": 1,
-		"hasChildren": "Y",
-		"fourVerifyResult": "Y",
-		"liveAddressProvince": "110100",
-		"liveAddressCity": "110100",
-		"liveAddressBorough": "110105",
-		"liveDetailAddress": "北京市海淀区xxx街道xxx小区xxx号楼xxx层xxx室",
-		"personalEmail": "zhangsan@test.com",
-		"cardValidDate": "2029-12-10-9999-09-09",
-		"position": 1,
-		"professionalTitle": 1,
-		"isLocalRigster": "Y",
-		"personalPurchaseHouse": 1,
-		"livingYear": 1,
-		"applicantClinicRelationship": 1,
-		"isDoctor": 1,
-		"workingYear": 5,
-		"isHighRiskArea": "Y",
-		"faceRecognition": "Y",
-		"identityCheckResult": "Y",
-		"monthIncome": 5,
-		"monthIncomeDetail": "5000",
-		"creditIsEmpty": "Y",
-		"creditTotalOverdueTimes": 1,
-		"creditTotalOverdueDays": 10,
-		"creditIsOverdue": "Y",
-		"isExistInCreditRepo": "0",
-		"allCreditRepoQueryTimes": 1,
-		"afterLoanCreditRepoQueryTimes": 1,
-		"creditRepoForCreditApproveQueryTimes": 1,
-		"creditRepoForLoanApprovedQueryTimes": 1,
-		"creditRepoForCreditCardApprovedQueryTimes": 1
-	},
-	"contactInfo": {
-		"spouseName": "李四",
-		"spousePhone": "13800138003",
-		"spouseCardNum": "110100199010010002",
-		"firstContactCardNum": "110100199010010002",
-		"firstContactRelationship": 2,
-		"firstContactName": "李四",
-		"firstContactPhone": "13800138002"
-	},
-	"entityInfo": {
-		"manageAddressProvince": "110100",
-		"manageAddressCity": "110100",
-		"manageAddressBorough": "110105",
-		"manageDetailAddress": "北京市海淀区xxx街道xxx小区xxx号楼xxx层xxx室",
-		"isChangeForLegalPerson": 1,
-		"clinicName": "诊所名称",
-		"isRequiredApplyLicense": "Y",
-		"unifiedSocialCreditCode": "556211803707544",
-		"permitRegistrationNumber": "84819923",
-		"hospitalCategory": 1,
 		"isThreeCertificatesInOne": "Y",
+		"clinicName": "宠物医院名称",
 		"corpType": 1,
+		"clinicUnifiedSocialCreditCode": "84919945",
 		"registeredAssets": 100.05,
 		"isAddressConsistent": "Y",
+		"legalPersonName": "法人名称",
+		"legalPersonIdcard": "110100199010010002",
 		"registerAddressProvince": "110100",
+		"legalPersonPhone": "13800138002",
 		"registerAddressCity": "110100",
-		"registerAddressBorough": "110105",
+		"registerAddressBorough": "110500",
 		"registerDetailAddress": "北京市海淀区xxx街道xxx小区xxx号楼xxx层xxx室",
 		"cityGrading": 1,
 		"businessLicenseValidDate": "2029-12-10-9999-09-09",
-		"openingDate": "2021-02-25",
+		"openingDate": "2021-02-01",
 		"establishYears": 3,
 		"oldLegalPersonName": "原法人",
-		"isChainInstitution": "Y",
-		"chainInstitutionNumber": 2,
 		"brandName": "品牌名称",
 		"annualRunningWater": 10.11,
 		"operateSiteOwnership": 1,
-		"legalPersonName": "法人",
-		"legalPersonIdcard": "110100199010010002",
-		"legalPersonPhone": "13800138002",
 		"decorateGrade": 1,
 		"locationGrade": 1,
-		"authorisedRepresentative": 1,
 		"legalPersonPhoneRealName": "Y",
 		"isSamePersonForProprietorAndLegal": "Y",
 		"proprietorRealName": "实际经营者",
-		"proprietorRealIdCardNo": "372301199509074811",
+		"proprietorRealIdCardNo": "123456789000000000",
 		"proprietorRealPhone": "12345678900",
 		"proprietorIsPhoneRealName": "Y",
-		"isSamePersonForLegalAndContact": "Y",
-		"isSamePersonForProprietorContact": "Y",
-		"contactName": "联系人",
-		"contactIdCardNo": "372301199509074811",
-		"contactPhone": "12345678900",
 		"legalPersonIsDoctor": 1,
 		"proprietorIsDoctor": 1,
-		"isFieldTrip": "Y",
-		"accessWay": "1",
-		"supplierName": "供应商1,供应商2",
+		"shareholderIsDoctor": 1,
+		"accessWay": 2,
 		"floorSpace": 21.55,
-		"staffOnActiveDutyNum": 1,
-		"havePromotionActivity": 1,
-		"clinicMaxOverdueDays": 1,
-		"clinicOverdueTimesMoreThan5": 1,
-		"clinicFirstLoanTime": "2021-02-24 00:00:00",
-		"clinicTotalLoanCount": 1,
-		"clinicTotalLoanAmount": 100.55,
-		"clinicInLoanAmount": 100.55,
-		"clinicCurrentOverdueAmount": 100.55,
-		"clinicCurrentOverdueCount": 1,
-		"clinicCurrentOverdueDays": 1,
-		"clinicHistoryOverdueDays": 1,
-		"clinicTotalOverdueTimes": 1,
-		"clinicTotalSettleCount": 1
-	},
-	"imageInfo": {
-		"frontPhotoOfIDCard": "http://5b0988e595225.cdn.sohucs.com/images/20190703/213be8a9118d46978208d7f8c5eefa50.jpeg",
-		"backPhotoOfIDCard": "http://5b0988e595225.cdn.sohucs.com/images/20190711/c8fb8a8d370b4c1eb03e1c5cc0cc95a8.jpeg",
-		"livingVerificationScreenshot": "http://www.99danji.com/uploadfile/2015/0921/20150921103659839.png",
-		"graduationCertificate": "http://5b0988e595225.cdn.sohucs.com/images/20170823/6c785864112d4345b55e4cea2b13c74b.jpg",
-		"propertyCertificate": "http://5b0988e595225.cdn.sohucs.com/images/20180203/f052f7850d954d7894961aec83d964d1.jpeg",
-		"imageForCreditRepo": "https://th.bing.com/th/id/Rb1107168a1f2b01c6f891acad73b965a?rik=4I6hZDM5GCxlmA&amp;riu=http%3a%2f%2fimage1.ljcdn.com%2fneirong-image%2fneirong1488766346phpnsYcBH.jpeg",
-		"medicalPracticeCertificate": "http://5b0988e595225.cdn.sohucs.com/images/20180901/85cf11b2b21c4bbd836eab3d966477cc.jpeg",
-		"shareholderCertificate": "https://gss0.baidu.com/9vo3dSag_xI4khGko9WTAnF6hhy/zhidao/wh%3D600%2C800/sign=f0b363f254ee3d6d22938fcd7326411a/5bafa40f4bfbfbed0aea462a75f0f736afc31f37.jpg",
-		"medicalInstitutionLicense": "https://cn.bing.com/images/search?view=detailV2&amp;ccid=lOvyrMAU&amp;id=53EBC385D85E86D272FF006CB52CCA789897B51F&amp;thid=OIP.lOvyrMAU9tvaCy00NgxQtQHaE6&amp;mediaurl=https%3a%2f%2fpic4.zhimg.com%2fv2-bc7577240243deaa0d1e7b381363a3b3_b.jpg",
-		"businessLicense": "http://baoliao.oeeee.com/upload/2/2014-0/650XH/62df72e8-a41a-4386-973b-f8b93e98d8f0.jpg",
-		"enterpriseEnvironment": "https://th.bing.com/th/id/Re5d8c49cbd3a02de7b984e2c8463d5ed?rik=rMJIVSGbGKPmJg&amp;riu=http%3a%2f%2fwww.zdmd.com.cn%2fupload%2f2016-4%2f2016041951847793.JPG",
-		"enterpriseDoorLicense": "https://th.bing.com/th/id/R41328786f6a0726c76af97c1cec14339?rik=qWkOEH8KWDCRaQ&amp;riu=http%3a%2f%2fwww.68sign.com%2fupload%2fproducts%2fsignage%2f68sign.com-2012102119397481.jpg",
-		"enterpriseFacadePhotos": "https://image2.znzmo.com/JkrEi44k7M.jpg",
-		"consultationRoomPhotos": "https://img.zcool.cn/community/01b9a25c39ab32a80121fbb06c85c4.jpg@1280w_1l_2o_100sh.jpg"
+		"staffOnActiveDutyNum": 1
 	}
 }</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>bindingCardInfo.bankCode</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>bindingCardInfo.bankNameSub</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>bindingCardInfo.bankCardNo</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>bindingCardInfo.bankCardAccountType</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>bindingCardInfo.bankPhone</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-非</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>imageInfo.salesContractImage</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-非</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.isChangeForLegalPerson</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-非</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.registerAddressProvince</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-非</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.registerAddressCity</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-非</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.registerAddressBorough</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-非</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.isChainInstitution</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-非</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.brandName</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-非</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.authorisedRepresentative</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-非</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.legalPersonIsDoctor</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-非</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.proprietorIsDoctor</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>imageInfo.imageInfo</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>creditInfo.creditInfo</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>applyInfo.applyInfo</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>personalInfo.personalInfo</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-非</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>contactInfo.contactInfo</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.entityInfo</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>applyInfo.applyInfo</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>loanInfo.loanInfo</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>bindingCardInfo.bindingCardInfo</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>cardInfo.cardInfo</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>personalInfo.personalInfo</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>imageInfo.imageInfo</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.entityInfo</t>
-    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -9381,8 +9409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA402FE-2170-234C-BFCB-80F823858BAC}">
   <dimension ref="A1:F337"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -9399,7 +9427,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -9416,25 +9444,25 @@
     </row>
     <row r="2" spans="1:6" ht="409.6">
       <c r="A2" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="3">
         <v>4000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>6</v>
+        <v>204</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20">
       <c r="A3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="7">
@@ -9446,7 +9474,7 @@
     </row>
     <row r="4" spans="1:6" ht="20">
       <c r="A4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="7">
@@ -9458,7 +9486,7 @@
     </row>
     <row r="5" spans="1:6" ht="20">
       <c r="A5" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="7">
@@ -9470,7 +9498,7 @@
     </row>
     <row r="6" spans="1:6" ht="20">
       <c r="A6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="7">
@@ -9482,7 +9510,7 @@
     </row>
     <row r="7" spans="1:6" ht="20">
       <c r="A7" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="7">
@@ -9494,7 +9522,7 @@
     </row>
     <row r="8" spans="1:6" ht="20">
       <c r="A8" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="7">
@@ -9506,7 +9534,7 @@
     </row>
     <row r="9" spans="1:6" ht="20">
       <c r="A9" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="7">
@@ -9518,7 +9546,7 @@
     </row>
     <row r="10" spans="1:6" ht="20">
       <c r="A10" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="7">
@@ -9530,7 +9558,7 @@
     </row>
     <row r="11" spans="1:6" ht="20">
       <c r="A11" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="7">
@@ -9542,7 +9570,7 @@
     </row>
     <row r="12" spans="1:6" ht="20">
       <c r="A12" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="7">
@@ -9554,7 +9582,7 @@
     </row>
     <row r="13" spans="1:6" ht="20">
       <c r="A13" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="7">
@@ -9566,7 +9594,7 @@
     </row>
     <row r="14" spans="1:6" ht="20">
       <c r="A14" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="7">
@@ -9578,7 +9606,7 @@
     </row>
     <row r="15" spans="1:6" ht="20">
       <c r="A15" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="7">
@@ -9590,7 +9618,7 @@
     </row>
     <row r="16" spans="1:6" ht="20">
       <c r="A16" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="7">
@@ -9602,7 +9630,7 @@
     </row>
     <row r="17" spans="1:6" ht="20">
       <c r="A17" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="7">
@@ -9614,7 +9642,7 @@
     </row>
     <row r="18" spans="1:6" ht="20">
       <c r="A18" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="7">
@@ -9626,7 +9654,7 @@
     </row>
     <row r="19" spans="1:6" ht="20">
       <c r="A19" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="7">
@@ -9638,7 +9666,7 @@
     </row>
     <row r="20" spans="1:6" ht="20">
       <c r="A20" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="7">
@@ -9650,7 +9678,7 @@
     </row>
     <row r="21" spans="1:6" ht="20">
       <c r="A21" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="7">
@@ -9662,7 +9690,7 @@
     </row>
     <row r="22" spans="1:6" ht="20">
       <c r="A22" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="7">
@@ -9674,7 +9702,7 @@
     </row>
     <row r="23" spans="1:6" ht="20">
       <c r="A23" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="7">
@@ -9686,7 +9714,7 @@
     </row>
     <row r="24" spans="1:6" ht="20">
       <c r="A24" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" s="19"/>
       <c r="C24" s="7">
@@ -9698,7 +9726,7 @@
     </row>
     <row r="25" spans="1:6" ht="20">
       <c r="A25" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="7">
@@ -9710,7 +9738,7 @@
     </row>
     <row r="26" spans="1:6" ht="20">
       <c r="A26" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="7">
@@ -9722,7 +9750,7 @@
     </row>
     <row r="27" spans="1:6" ht="20">
       <c r="A27" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="19"/>
       <c r="C27" s="7">
@@ -9734,7 +9762,7 @@
     </row>
     <row r="28" spans="1:6" ht="20">
       <c r="A28" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="19"/>
       <c r="C28" s="7">
@@ -9746,7 +9774,7 @@
     </row>
     <row r="29" spans="1:6" ht="20">
       <c r="A29" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="19"/>
       <c r="C29" s="7">
@@ -9758,7 +9786,7 @@
     </row>
     <row r="30" spans="1:6" ht="20">
       <c r="A30" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="19"/>
       <c r="C30" s="7">
@@ -9770,7 +9798,7 @@
     </row>
     <row r="31" spans="1:6" ht="20">
       <c r="A31" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="19"/>
       <c r="C31" s="7">
@@ -9782,7 +9810,7 @@
     </row>
     <row r="32" spans="1:6" ht="20">
       <c r="A32" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="7">
@@ -9794,7 +9822,7 @@
     </row>
     <row r="33" spans="1:6" ht="20">
       <c r="A33" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="19"/>
       <c r="C33" s="7">
@@ -9806,7 +9834,7 @@
     </row>
     <row r="34" spans="1:6" ht="20">
       <c r="A34" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" s="19"/>
       <c r="C34" s="7">
@@ -9818,7 +9846,7 @@
     </row>
     <row r="35" spans="1:6" ht="20">
       <c r="A35" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="19"/>
       <c r="C35" s="7">
@@ -9830,7 +9858,7 @@
     </row>
     <row r="36" spans="1:6" ht="20">
       <c r="A36" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" s="19"/>
       <c r="C36" s="7">
@@ -9842,7 +9870,7 @@
     </row>
     <row r="37" spans="1:6" ht="20">
       <c r="A37" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="19"/>
       <c r="C37" s="7">
@@ -9854,7 +9882,7 @@
     </row>
     <row r="38" spans="1:6" ht="20">
       <c r="A38" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38" s="19"/>
       <c r="C38" s="7">
@@ -9866,7 +9894,7 @@
     </row>
     <row r="39" spans="1:6" ht="20">
       <c r="A39" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B39" s="19"/>
       <c r="C39" s="7">
@@ -9878,7 +9906,7 @@
     </row>
     <row r="40" spans="1:6" ht="20">
       <c r="A40" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B40" s="19"/>
       <c r="C40" s="7">
@@ -9890,7 +9918,7 @@
     </row>
     <row r="41" spans="1:6" ht="20">
       <c r="A41" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" s="19"/>
       <c r="C41" s="7">
@@ -9902,7 +9930,7 @@
     </row>
     <row r="42" spans="1:6" ht="20">
       <c r="A42" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="7">
@@ -9914,7 +9942,7 @@
     </row>
     <row r="43" spans="1:6" ht="20">
       <c r="A43" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43" s="19"/>
       <c r="C43" s="7">
@@ -9926,7 +9954,7 @@
     </row>
     <row r="44" spans="1:6" ht="20">
       <c r="A44" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" s="19"/>
       <c r="C44" s="7">
@@ -9938,7 +9966,7 @@
     </row>
     <row r="45" spans="1:6" ht="20">
       <c r="A45" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B45" s="19"/>
       <c r="C45" s="7">
@@ -9950,7 +9978,7 @@
     </row>
     <row r="46" spans="1:6" ht="20">
       <c r="A46" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46" s="19"/>
       <c r="C46" s="7">
@@ -9962,7 +9990,7 @@
     </row>
     <row r="47" spans="1:6" ht="20">
       <c r="A47" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B47" s="19"/>
       <c r="C47" s="7">
@@ -9974,7 +10002,7 @@
     </row>
     <row r="48" spans="1:6" ht="20">
       <c r="A48" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B48" s="19"/>
       <c r="C48" s="7">
@@ -9986,7 +10014,7 @@
     </row>
     <row r="49" spans="1:6" ht="20">
       <c r="A49" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B49" s="19"/>
       <c r="C49" s="7">
@@ -9998,7 +10026,7 @@
     </row>
     <row r="50" spans="1:6" ht="20">
       <c r="A50" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B50" s="19"/>
       <c r="C50" s="7">
@@ -10010,7 +10038,7 @@
     </row>
     <row r="51" spans="1:6" ht="20">
       <c r="A51" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B51" s="19"/>
       <c r="C51" s="7">
@@ -10022,7 +10050,7 @@
     </row>
     <row r="52" spans="1:6" ht="20">
       <c r="A52" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B52" s="19"/>
       <c r="C52" s="7">
@@ -10034,7 +10062,7 @@
     </row>
     <row r="53" spans="1:6" ht="20">
       <c r="A53" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B53" s="19"/>
       <c r="C53" s="7">
@@ -10046,7 +10074,7 @@
     </row>
     <row r="54" spans="1:6" ht="20">
       <c r="A54" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B54" s="19"/>
       <c r="C54" s="7">
@@ -10058,7 +10086,7 @@
     </row>
     <row r="55" spans="1:6" ht="20">
       <c r="A55" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B55" s="19"/>
       <c r="C55" s="7">
@@ -10070,7 +10098,7 @@
     </row>
     <row r="56" spans="1:6" ht="20">
       <c r="A56" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B56" s="19"/>
       <c r="C56" s="7">
@@ -10082,7 +10110,7 @@
     </row>
     <row r="57" spans="1:6" ht="20">
       <c r="A57" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B57" s="19"/>
       <c r="C57" s="7">
@@ -10094,7 +10122,7 @@
     </row>
     <row r="58" spans="1:6" ht="20">
       <c r="A58" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B58" s="19"/>
       <c r="C58" s="7">
@@ -10106,7 +10134,7 @@
     </row>
     <row r="59" spans="1:6" ht="20">
       <c r="A59" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B59" s="19"/>
       <c r="C59" s="7">
@@ -10118,7 +10146,7 @@
     </row>
     <row r="60" spans="1:6" ht="20">
       <c r="A60" s="16" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B60" s="19"/>
       <c r="C60" s="7">
@@ -10130,7 +10158,7 @@
     </row>
     <row r="61" spans="1:6" ht="20">
       <c r="A61" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B61" s="19"/>
       <c r="C61" s="7">
@@ -10142,7 +10170,7 @@
     </row>
     <row r="62" spans="1:6" ht="20">
       <c r="A62" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B62" s="19"/>
       <c r="C62" s="7">
@@ -10154,7 +10182,7 @@
     </row>
     <row r="63" spans="1:6" ht="20">
       <c r="A63" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B63" s="19"/>
       <c r="C63" s="7">
@@ -10166,7 +10194,7 @@
     </row>
     <row r="64" spans="1:6" ht="20">
       <c r="A64" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B64" s="19"/>
       <c r="C64" s="7">
@@ -10178,7 +10206,7 @@
     </row>
     <row r="65" spans="1:6" ht="20">
       <c r="A65" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B65" s="19"/>
       <c r="C65" s="7">
@@ -10190,7 +10218,7 @@
     </row>
     <row r="66" spans="1:6" ht="20">
       <c r="A66" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B66" s="19"/>
       <c r="C66" s="7">
@@ -10202,7 +10230,7 @@
     </row>
     <row r="67" spans="1:6" ht="20">
       <c r="A67" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B67" s="19"/>
       <c r="C67" s="7">
@@ -10214,7 +10242,7 @@
     </row>
     <row r="68" spans="1:6" ht="20">
       <c r="A68" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B68" s="19"/>
       <c r="C68" s="7">
@@ -10226,7 +10254,7 @@
     </row>
     <row r="69" spans="1:6" ht="20">
       <c r="A69" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B69" s="19"/>
       <c r="C69" s="7">
@@ -10238,7 +10266,7 @@
     </row>
     <row r="70" spans="1:6" ht="20">
       <c r="A70" s="16" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B70" s="19"/>
       <c r="C70" s="7">
@@ -10250,7 +10278,7 @@
     </row>
     <row r="71" spans="1:6" ht="20">
       <c r="A71" s="16" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B71" s="19"/>
       <c r="C71" s="7">
@@ -10262,7 +10290,7 @@
     </row>
     <row r="72" spans="1:6" ht="20">
       <c r="A72" s="16" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B72" s="19"/>
       <c r="C72" s="7">
@@ -10274,7 +10302,7 @@
     </row>
     <row r="73" spans="1:6" ht="20">
       <c r="A73" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B73" s="19"/>
       <c r="C73" s="7">
@@ -10286,7 +10314,7 @@
     </row>
     <row r="74" spans="1:6" ht="20">
       <c r="A74" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B74" s="19"/>
       <c r="C74" s="7">
@@ -10298,7 +10326,7 @@
     </row>
     <row r="75" spans="1:6" ht="20">
       <c r="A75" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B75" s="19"/>
       <c r="C75" s="7">
@@ -10310,7 +10338,7 @@
     </row>
     <row r="76" spans="1:6" ht="20">
       <c r="A76" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B76" s="19"/>
       <c r="C76" s="7">
@@ -10322,7 +10350,7 @@
     </row>
     <row r="77" spans="1:6" ht="20">
       <c r="A77" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B77" s="19"/>
       <c r="C77" s="7">
@@ -10334,7 +10362,7 @@
     </row>
     <row r="78" spans="1:6" ht="20">
       <c r="A78" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B78" s="19"/>
       <c r="C78" s="7">
@@ -10346,7 +10374,7 @@
     </row>
     <row r="79" spans="1:6" ht="20">
       <c r="A79" s="16" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B79" s="19"/>
       <c r="C79" s="7">
@@ -10358,7 +10386,7 @@
     </row>
     <row r="80" spans="1:6" ht="20">
       <c r="A80" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" s="19"/>
       <c r="C80" s="7">
@@ -10370,7 +10398,7 @@
     </row>
     <row r="81" spans="1:6" ht="20">
       <c r="A81" s="16" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B81" s="19"/>
       <c r="C81" s="7">
@@ -10382,7 +10410,7 @@
     </row>
     <row r="82" spans="1:6" ht="20">
       <c r="A82" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B82" s="19"/>
       <c r="C82" s="7">
@@ -10394,7 +10422,7 @@
     </row>
     <row r="83" spans="1:6" ht="20">
       <c r="A83" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B83" s="19"/>
       <c r="C83" s="7">
@@ -10406,7 +10434,7 @@
     </row>
     <row r="84" spans="1:6" ht="20">
       <c r="A84" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B84" s="19"/>
       <c r="C84" s="7">
@@ -10418,7 +10446,7 @@
     </row>
     <row r="85" spans="1:6" ht="20">
       <c r="A85" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B85" s="19"/>
       <c r="C85" s="7">
@@ -10430,7 +10458,7 @@
     </row>
     <row r="86" spans="1:6" ht="20">
       <c r="A86" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B86" s="19"/>
       <c r="C86" s="7">
@@ -10442,7 +10470,7 @@
     </row>
     <row r="87" spans="1:6" ht="20">
       <c r="A87" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B87" s="19"/>
       <c r="C87" s="7">
@@ -10454,7 +10482,7 @@
     </row>
     <row r="88" spans="1:6" ht="20">
       <c r="A88" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B88" s="19"/>
       <c r="C88" s="7">
@@ -10466,7 +10494,7 @@
     </row>
     <row r="89" spans="1:6" ht="20">
       <c r="A89" s="16" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B89" s="19"/>
       <c r="C89" s="7">
@@ -10478,7 +10506,7 @@
     </row>
     <row r="90" spans="1:6" ht="20">
       <c r="A90" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90" s="19"/>
       <c r="C90" s="7">
@@ -10490,7 +10518,7 @@
     </row>
     <row r="91" spans="1:6" ht="20">
       <c r="A91" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" s="19"/>
       <c r="C91" s="7">
@@ -10502,7 +10530,7 @@
     </row>
     <row r="92" spans="1:6" ht="20">
       <c r="A92" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92" s="19"/>
       <c r="C92" s="7">
@@ -10514,7 +10542,7 @@
     </row>
     <row r="93" spans="1:6" ht="20">
       <c r="A93" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B93" s="19"/>
       <c r="C93" s="7">
@@ -10526,7 +10554,7 @@
     </row>
     <row r="94" spans="1:6" ht="20">
       <c r="A94" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B94" s="19"/>
       <c r="C94" s="7">
@@ -10538,7 +10566,7 @@
     </row>
     <row r="95" spans="1:6" ht="20">
       <c r="A95" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B95" s="19"/>
       <c r="C95" s="7">
@@ -10550,7 +10578,7 @@
     </row>
     <row r="96" spans="1:6" ht="20">
       <c r="A96" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B96" s="19"/>
       <c r="C96" s="7">
@@ -10562,7 +10590,7 @@
     </row>
     <row r="97" spans="1:6" ht="20">
       <c r="A97" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B97" s="19"/>
       <c r="C97" s="7">
@@ -10574,7 +10602,7 @@
     </row>
     <row r="98" spans="1:6" ht="20">
       <c r="A98" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B98" s="19"/>
       <c r="C98" s="7">
@@ -10586,7 +10614,7 @@
     </row>
     <row r="99" spans="1:6" ht="20">
       <c r="A99" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B99" s="19"/>
       <c r="C99" s="7">
@@ -10598,7 +10626,7 @@
     </row>
     <row r="100" spans="1:6" ht="20">
       <c r="A100" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B100" s="19"/>
       <c r="C100" s="7">
@@ -10610,7 +10638,7 @@
     </row>
     <row r="101" spans="1:6" ht="20">
       <c r="A101" s="16" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B101" s="19"/>
       <c r="C101" s="7">
@@ -10622,7 +10650,7 @@
     </row>
     <row r="102" spans="1:6" ht="20">
       <c r="A102" s="16" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B102" s="19"/>
       <c r="C102" s="7">
@@ -10634,7 +10662,7 @@
     </row>
     <row r="103" spans="1:6" ht="20">
       <c r="A103" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" s="19"/>
       <c r="C103" s="7">
@@ -10646,7 +10674,7 @@
     </row>
     <row r="104" spans="1:6" ht="20">
       <c r="A104" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" s="19"/>
       <c r="C104" s="7">
@@ -10658,7 +10686,7 @@
     </row>
     <row r="105" spans="1:6" ht="20">
       <c r="A105" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" s="19"/>
       <c r="C105" s="7">
@@ -10670,7 +10698,7 @@
     </row>
     <row r="106" spans="1:6" ht="20">
       <c r="A106" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" s="19"/>
       <c r="C106" s="7">
@@ -10682,7 +10710,7 @@
     </row>
     <row r="107" spans="1:6" ht="20">
       <c r="A107" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" s="19"/>
       <c r="C107" s="7">
@@ -10694,7 +10722,7 @@
     </row>
     <row r="108" spans="1:6" ht="20">
       <c r="A108" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" s="19"/>
       <c r="C108" s="7">
@@ -10706,7 +10734,7 @@
     </row>
     <row r="109" spans="1:6" ht="20">
       <c r="A109" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" s="19"/>
       <c r="C109" s="7">
@@ -10718,7 +10746,7 @@
     </row>
     <row r="110" spans="1:6" ht="20">
       <c r="A110" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" s="19"/>
       <c r="C110" s="7">
@@ -10730,7 +10758,7 @@
     </row>
     <row r="111" spans="1:6" ht="20">
       <c r="A111" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" s="19"/>
       <c r="C111" s="7">
@@ -10742,7 +10770,7 @@
     </row>
     <row r="112" spans="1:6" ht="20">
       <c r="A112" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" s="19"/>
       <c r="C112" s="7">
@@ -10754,7 +10782,7 @@
     </row>
     <row r="113" spans="1:6" ht="20">
       <c r="A113" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" s="19"/>
       <c r="C113" s="7">
@@ -10766,7 +10794,7 @@
     </row>
     <row r="114" spans="1:6" ht="20">
       <c r="A114" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" s="19"/>
       <c r="C114" s="7">
@@ -10778,7 +10806,7 @@
     </row>
     <row r="115" spans="1:6" ht="20">
       <c r="A115" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" s="19"/>
       <c r="C115" s="7">
@@ -10790,7 +10818,7 @@
     </row>
     <row r="116" spans="1:6" ht="20">
       <c r="A116" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" s="19"/>
       <c r="C116" s="7">
@@ -10802,7 +10830,7 @@
     </row>
     <row r="117" spans="1:6" ht="20">
       <c r="A117" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" s="19"/>
       <c r="C117" s="7">
@@ -10814,7 +10842,7 @@
     </row>
     <row r="118" spans="1:6" ht="20">
       <c r="A118" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="19"/>
       <c r="C118" s="7">
@@ -10826,7 +10854,7 @@
     </row>
     <row r="119" spans="1:6" ht="20">
       <c r="A119" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" s="19"/>
       <c r="C119" s="7">
@@ -10838,7 +10866,7 @@
     </row>
     <row r="120" spans="1:6" ht="20">
       <c r="A120" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B120" s="19"/>
       <c r="C120" s="7">
@@ -10850,7 +10878,7 @@
     </row>
     <row r="121" spans="1:6" ht="20">
       <c r="A121" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B121" s="19"/>
       <c r="C121" s="7">
@@ -10862,7 +10890,7 @@
     </row>
     <row r="122" spans="1:6" ht="20">
       <c r="A122" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B122" s="19"/>
       <c r="C122" s="7">
@@ -10874,7 +10902,7 @@
     </row>
     <row r="123" spans="1:6" ht="20">
       <c r="A123" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B123" s="19"/>
       <c r="C123" s="7">
@@ -10886,7 +10914,7 @@
     </row>
     <row r="124" spans="1:6" ht="20">
       <c r="A124" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B124" s="19"/>
       <c r="C124" s="7">
@@ -10898,7 +10926,7 @@
     </row>
     <row r="125" spans="1:6" ht="20">
       <c r="A125" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B125" s="19"/>
       <c r="C125" s="7">
@@ -10910,7 +10938,7 @@
     </row>
     <row r="126" spans="1:6" ht="20">
       <c r="A126" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B126" s="19"/>
       <c r="C126" s="7">
@@ -10922,7 +10950,7 @@
     </row>
     <row r="127" spans="1:6" ht="20">
       <c r="A127" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B127" s="19"/>
       <c r="C127" s="7">
@@ -10934,7 +10962,7 @@
     </row>
     <row r="128" spans="1:6" ht="20">
       <c r="A128" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B128" s="19"/>
       <c r="C128" s="7">
@@ -10946,7 +10974,7 @@
     </row>
     <row r="129" spans="1:6" ht="20">
       <c r="A129" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B129" s="19"/>
       <c r="C129" s="7">
@@ -10958,7 +10986,7 @@
     </row>
     <row r="130" spans="1:6" ht="20">
       <c r="A130" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B130" s="19"/>
       <c r="C130" s="7">
@@ -10970,7 +10998,7 @@
     </row>
     <row r="131" spans="1:6" ht="20">
       <c r="A131" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B131" s="19"/>
       <c r="C131" s="7">
@@ -10982,7 +11010,7 @@
     </row>
     <row r="132" spans="1:6" ht="20">
       <c r="A132" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B132" s="19"/>
       <c r="C132" s="7">
@@ -10994,7 +11022,7 @@
     </row>
     <row r="133" spans="1:6" ht="20">
       <c r="A133" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B133" s="19"/>
       <c r="C133" s="7">
@@ -11006,7 +11034,7 @@
     </row>
     <row r="134" spans="1:6" ht="20">
       <c r="A134" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B134" s="19"/>
       <c r="C134" s="7">
@@ -11018,7 +11046,7 @@
     </row>
     <row r="135" spans="1:6" ht="20">
       <c r="A135" s="16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B135" s="19"/>
       <c r="C135" s="7">
@@ -11030,7 +11058,7 @@
     </row>
     <row r="136" spans="1:6" ht="20">
       <c r="A136" s="16" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B136" s="19"/>
       <c r="C136" s="7">
@@ -11042,7 +11070,7 @@
     </row>
     <row r="137" spans="1:6" ht="20">
       <c r="A137" s="16" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B137" s="19"/>
       <c r="C137" s="7">
@@ -11054,7 +11082,7 @@
     </row>
     <row r="138" spans="1:6" ht="20">
       <c r="A138" s="16" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B138" s="19"/>
       <c r="C138" s="7">
@@ -11066,7 +11094,7 @@
     </row>
     <row r="139" spans="1:6" ht="20">
       <c r="A139" s="16" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B139" s="19"/>
       <c r="C139" s="7">
@@ -11078,7 +11106,7 @@
     </row>
     <row r="140" spans="1:6" ht="20">
       <c r="A140" s="16" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B140" s="19"/>
       <c r="C140" s="7">
@@ -12674,8 +12702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DA53EC-1037-824F-AE67-3CD7020CE1C6}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -12692,7 +12720,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -12709,25 +12737,25 @@
     </row>
     <row r="2" spans="1:6" ht="409.6">
       <c r="A2" s="22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="3">
         <v>4000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20">
       <c r="A3" s="22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="3">
@@ -12736,7 +12764,7 @@
     </row>
     <row r="4" spans="1:6" ht="20">
       <c r="A4" s="22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="3">
@@ -12745,7 +12773,7 @@
     </row>
     <row r="5" spans="1:6" ht="20">
       <c r="A5" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="3">
@@ -12754,7 +12782,7 @@
     </row>
     <row r="6" spans="1:6" ht="20">
       <c r="A6" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="3">
@@ -12763,7 +12791,7 @@
     </row>
     <row r="7" spans="1:6" ht="20">
       <c r="A7" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="3">
@@ -12772,7 +12800,7 @@
     </row>
     <row r="8" spans="1:6" ht="20">
       <c r="A8" s="22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="3">
@@ -12781,7 +12809,7 @@
     </row>
     <row r="9" spans="1:6" ht="20">
       <c r="A9" s="22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="3">
@@ -12790,7 +12818,7 @@
     </row>
     <row r="10" spans="1:6" ht="20">
       <c r="A10" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="3">
@@ -12799,7 +12827,7 @@
     </row>
     <row r="11" spans="1:6" ht="20">
       <c r="A11" s="22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="3">
@@ -12808,7 +12836,7 @@
     </row>
     <row r="12" spans="1:6" ht="20">
       <c r="A12" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="3">
@@ -12817,7 +12845,7 @@
     </row>
     <row r="13" spans="1:6" ht="20">
       <c r="A13" s="22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="3">
@@ -12826,7 +12854,7 @@
     </row>
     <row r="14" spans="1:6" ht="20">
       <c r="A14" s="22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="3">
@@ -12835,7 +12863,7 @@
     </row>
     <row r="15" spans="1:6" ht="20">
       <c r="A15" s="22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="3">
@@ -12844,7 +12872,7 @@
     </row>
     <row r="16" spans="1:6" ht="20">
       <c r="A16" s="22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="3">
@@ -12853,7 +12881,7 @@
     </row>
     <row r="17" spans="1:3" ht="20">
       <c r="A17" s="22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="3">
@@ -12862,7 +12890,7 @@
     </row>
     <row r="18" spans="1:3" ht="20">
       <c r="A18" s="22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="3">
@@ -12871,7 +12899,7 @@
     </row>
     <row r="19" spans="1:3" ht="20">
       <c r="A19" s="22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="3">
@@ -12880,7 +12908,7 @@
     </row>
     <row r="20" spans="1:3" ht="20">
       <c r="A20" s="22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="3">
@@ -12889,7 +12917,7 @@
     </row>
     <row r="21" spans="1:3" ht="20">
       <c r="A21" s="22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="3">
@@ -12898,7 +12926,7 @@
     </row>
     <row r="22" spans="1:3" ht="20">
       <c r="A22" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="3">
@@ -12907,7 +12935,7 @@
     </row>
     <row r="23" spans="1:3" ht="20">
       <c r="A23" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="3">
@@ -12916,7 +12944,7 @@
     </row>
     <row r="24" spans="1:3" ht="20">
       <c r="A24" s="22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="3">
@@ -12925,7 +12953,7 @@
     </row>
     <row r="25" spans="1:3" ht="20">
       <c r="A25" s="22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="3">
@@ -12934,7 +12962,7 @@
     </row>
     <row r="26" spans="1:3" ht="20">
       <c r="A26" s="22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="3">
@@ -12943,7 +12971,7 @@
     </row>
     <row r="27" spans="1:3" ht="20">
       <c r="A27" s="22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="3">
@@ -12952,7 +12980,7 @@
     </row>
     <row r="28" spans="1:3" ht="20">
       <c r="A28" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="3">
@@ -12961,7 +12989,7 @@
     </row>
     <row r="29" spans="1:3" ht="20">
       <c r="A29" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="3">
@@ -12970,7 +12998,7 @@
     </row>
     <row r="30" spans="1:3" ht="20">
       <c r="A30" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="3">
@@ -12979,7 +13007,7 @@
     </row>
     <row r="31" spans="1:3" ht="20">
       <c r="A31" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="3">
@@ -12988,7 +13016,7 @@
     </row>
     <row r="32" spans="1:3" ht="20">
       <c r="A32" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B32" s="18"/>
       <c r="C32" s="3">
@@ -12997,7 +13025,7 @@
     </row>
     <row r="33" spans="1:3" ht="20">
       <c r="A33" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B33" s="18"/>
       <c r="C33" s="3">
@@ -13006,7 +13034,7 @@
     </row>
     <row r="34" spans="1:3" ht="20">
       <c r="A34" s="22" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="3">
@@ -13015,7 +13043,7 @@
     </row>
     <row r="35" spans="1:3" ht="20">
       <c r="A35" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B35" s="18"/>
       <c r="C35" s="3">
@@ -13024,7 +13052,7 @@
     </row>
     <row r="36" spans="1:3" ht="20">
       <c r="A36" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B36" s="18"/>
       <c r="C36" s="3">
@@ -13033,7 +13061,7 @@
     </row>
     <row r="37" spans="1:3" ht="20">
       <c r="A37" s="22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B37" s="18"/>
       <c r="C37" s="3">
@@ -13042,7 +13070,7 @@
     </row>
     <row r="38" spans="1:3" ht="20">
       <c r="A38" s="22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B38" s="18"/>
       <c r="C38" s="3">
@@ -13051,7 +13079,7 @@
     </row>
     <row r="39" spans="1:3" ht="20">
       <c r="A39" s="22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B39" s="18"/>
       <c r="C39" s="3">
@@ -13060,7 +13088,7 @@
     </row>
     <row r="40" spans="1:3" ht="20">
       <c r="A40" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B40" s="18"/>
       <c r="C40" s="3">
@@ -13069,7 +13097,7 @@
     </row>
     <row r="41" spans="1:3" ht="20">
       <c r="A41" s="22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B41" s="18"/>
       <c r="C41" s="3">
@@ -13078,7 +13106,7 @@
     </row>
     <row r="42" spans="1:3" ht="20">
       <c r="A42" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="3">
@@ -13087,7 +13115,7 @@
     </row>
     <row r="43" spans="1:3" ht="20">
       <c r="A43" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B43" s="18"/>
       <c r="C43" s="3">
@@ -13096,7 +13124,7 @@
     </row>
     <row r="44" spans="1:3" ht="20">
       <c r="A44" s="22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="3">
@@ -13105,7 +13133,7 @@
     </row>
     <row r="45" spans="1:3" ht="20">
       <c r="A45" s="22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B45" s="18"/>
       <c r="C45" s="3">
@@ -13114,7 +13142,7 @@
     </row>
     <row r="46" spans="1:3" ht="20">
       <c r="A46" s="22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B46" s="18"/>
       <c r="C46" s="3">
@@ -13123,7 +13151,7 @@
     </row>
     <row r="47" spans="1:3" ht="20">
       <c r="A47" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B47" s="18"/>
       <c r="C47" s="3">
@@ -13132,7 +13160,7 @@
     </row>
     <row r="48" spans="1:3" ht="20">
       <c r="A48" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B48" s="18"/>
       <c r="C48" s="3">
@@ -13141,7 +13169,7 @@
     </row>
     <row r="49" spans="1:3" ht="20">
       <c r="A49" s="23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B49" s="24"/>
       <c r="C49" s="25">
@@ -13150,7 +13178,7 @@
     </row>
     <row r="50" spans="1:3" ht="20">
       <c r="A50" s="16" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B50" s="19"/>
       <c r="C50" s="7">
@@ -13159,7 +13187,7 @@
     </row>
     <row r="51" spans="1:3" ht="20">
       <c r="A51" s="16" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B51" s="19"/>
       <c r="C51" s="7">
@@ -13168,7 +13196,7 @@
     </row>
     <row r="52" spans="1:3" ht="20">
       <c r="A52" s="16" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B52" s="19"/>
       <c r="C52" s="7">
@@ -13177,7 +13205,7 @@
     </row>
     <row r="53" spans="1:3" ht="20">
       <c r="A53" s="16" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B53" s="19"/>
       <c r="C53" s="7">
@@ -13186,7 +13214,7 @@
     </row>
     <row r="54" spans="1:3" ht="20">
       <c r="A54" s="16" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B54" s="19"/>
       <c r="C54" s="7">
@@ -13195,7 +13223,7 @@
     </row>
     <row r="55" spans="1:3" ht="20">
       <c r="A55" s="16" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B55" s="19"/>
       <c r="C55" s="7">
@@ -13204,7 +13232,7 @@
     </row>
     <row r="56" spans="1:3" ht="20">
       <c r="A56" s="16" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B56" s="19"/>
       <c r="C56" s="7">
@@ -13213,7 +13241,7 @@
     </row>
     <row r="57" spans="1:3" ht="20">
       <c r="A57" s="16" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B57" s="19"/>
       <c r="C57" s="7">
@@ -13222,7 +13250,7 @@
     </row>
     <row r="58" spans="1:3" ht="20">
       <c r="A58" s="16" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B58" s="19"/>
       <c r="C58" s="7">
@@ -13231,7 +13259,7 @@
     </row>
     <row r="59" spans="1:3" ht="20">
       <c r="A59" s="16" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B59" s="19"/>
       <c r="C59" s="7">
@@ -13240,7 +13268,7 @@
     </row>
     <row r="60" spans="1:3" ht="20">
       <c r="A60" s="16" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B60" s="19"/>
       <c r="C60" s="7">
@@ -13249,7 +13277,7 @@
     </row>
     <row r="61" spans="1:3" ht="20">
       <c r="A61" s="16" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B61" s="19"/>
       <c r="C61" s="7">

--- a/data/jk_cwshd_required_test.xlsx
+++ b/data/jk_cwshd_required_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C950E4B2-4FDA-B942-8B83-473F50318C28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C253F8-696D-E242-9440-F3DFE4F6660F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="500" windowWidth="27220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="500" windowWidth="27220" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="credit_none" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="292">
   <si>
     <t>casename</t>
   </si>
@@ -79,9 +79,6 @@
     <t>授信申请-非必填项为空personalInfo.hasChildren</t>
   </si>
   <si>
-    <t>授信申请-必填项为空personalInfo.fourVerifyResult</t>
-  </si>
-  <si>
     <t>授信申请-必填项为空personalInfo.liveAddressProvince</t>
   </si>
   <si>
@@ -142,47 +139,6 @@
   </si>
   <si>
     <t>授信申请-必填项为空creditInfo.sourceCreditAmt</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>personalInfo.faceRecognition</t>
-    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -7584,6 +7540,3340 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>creditInfo.auditResult</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-超出范围creditInfo.auditResult==3</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>applyInfo.productGroup==9999</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>授信申请-超出范围applyInfo.applySource==qqq</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>授信申请-超出范围applyInfo.financeChannel==2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.sex==A</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.maritalStatus==6</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.hasChildren==A</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.fourVerifyResult==A</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.monthIncome==6</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.cardValidDate==82394-1414</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.isLocalRigster==A</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.personalPurchaseHouse==5</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.livingYear==6</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.applicantClinicRelationship==0</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.isDoctor==2</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.workingYear==6</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.isHighRiskArea==A</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>contactInfo.firstContactRelationship==10</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.hospitalCategory==2</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.isThreeCertificatesInOne==A</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.corpType==7</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.businessLicenseValidDate==7319-38491</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.openingDate==QKWD9394</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.isChainInstitution==A</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.isAddressConsistent==A</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.operateSiteOwnership==0</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.decorateGrade==4</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.locationGrade==4</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.cityGrading==5</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.legalPersonPhoneRealName==A</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.isChangeForLegalPerson==7</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.isSamePersonForProprietorAndLegal==A</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.proprietorIsPhoneRealName==A</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.legalPersonIsDoctor==0</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.proprietorIsDoctor==0</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.shareholderIsDoctor==0</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.accessWay==0</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>applyInfo.applyTime==3299rfiwi</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>applyInfo.applyTerm==3</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>loanInfo.loanTerm==3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>applyInfo.applicationPeriod==3</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>applyInfo.productCode==FQ_JK_CKSHD</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>applyInfo.productGroup==1111</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>applyInfo.applySource==ppp</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>applyInfo.financeChannel==0</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>loanInfo.loanTerm==3</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyInfo.applyTerm==3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>loanInfo.cycleInterval==3</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>loanInfo.assetInterestRatePeriod==2</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>loanInfo.userInterestRatePeriod==2</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>loanInfo.repayMethod==AA</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>loanInfo.discountRate==0.01</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>loanInfo.assetInterestRatePeriod==0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>loanInfo.discountRate==0.11</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>applyInfo.applyAmount</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>applyInfo.applyAmount==210000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>loanInfo.loanAmount==210000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>loanInfo.loanAmount==210000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyInfo.applyAmount==210000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>bindingCardInfo.bankCardAccountType==4</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>cardInfo.accountProp==0</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>cardInfo.bankCardAccountType==4</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.fourVerifyResult</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.faceRecognition</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.identityCheckResult</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.identityCheckResult==A</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.faceRecognition==A</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.fourVerifyResult==A</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.isChainInstitution==A</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.isChangeForLegalPerson==0</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.hospitalCategory==2</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.isThreeCertificatesInOne==A</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.corpType==0</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.isAddressConsistent==A</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.cityGrading==0</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.businessLicenseValidDate==dawkk39</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.openingDate==dawkk39</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.operateSiteOwnership==0</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.decorateGrade==0</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.locationGrade==0</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.legalPersonPhoneRealName==A</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.isSamePersonForProprietorAndLegal==A</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.proprietorIsPhoneRealName==A</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.legalPersonIsDoctor==0</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.proprietorIsDoctor==0</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.shareholderIsDoctor==0</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进件申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>entityInfo.accessWay==0</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>授信申请-超出范围applyInfo.applyTime==fiei1929</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>{
 	"sourceCode": "jkjr",
 	"channel": "jkjr",
@@ -7635,6 +10925,7 @@
 	},
 	"entityInfo": {
 		"manageAddressProvince": "110100",
+		"legalPersonPhoneRealName": "Y",
 		"manageAddressCity": "110100",
 		"manageAddressBorough": "110500",
 		"manageDetailAddress": "北京市海淀区xxx街道xxx小区xxx号楼xxx层xxx室",
@@ -7710,7 +11001,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
+        <rFont val="PingFang SC"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
@@ -7723,13 +11014,13 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
+      <t>-非</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
@@ -7742,3301 +11033,8 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>creditInfo.auditResult</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-超出范围creditInfo.auditResult==3</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>applyInfo.productGroup==9999</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>授信申请-超出范围applyInfo.applySource==qqq</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>授信申请-超出范围applyInfo.financeChannel==2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>personalInfo.sex==A</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>personalInfo.maritalStatus==6</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>personalInfo.hasChildren==A</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>personalInfo.fourVerifyResult==A</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>personalInfo.monthIncome==6</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>personalInfo.cardValidDate==82394-1414</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>personalInfo.isLocalRigster==A</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>personalInfo.personalPurchaseHouse==5</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>personalInfo.livingYear==6</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>personalInfo.applicantClinicRelationship==0</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>personalInfo.isDoctor==2</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>personalInfo.workingYear==6</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>personalInfo.isHighRiskArea==A</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>contactInfo.firstContactRelationship==10</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.hospitalCategory==2</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.isThreeCertificatesInOne==A</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.corpType==7</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.businessLicenseValidDate==7319-38491</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.openingDate==QKWD9394</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.isChainInstitution==A</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.isAddressConsistent==A</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.operateSiteOwnership==0</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.decorateGrade==4</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.locationGrade==4</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.cityGrading==5</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.legalPersonPhoneRealName==A</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.isChangeForLegalPerson==7</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.isSamePersonForProprietorAndLegal==A</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.proprietorIsPhoneRealName==A</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.legalPersonIsDoctor==0</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.proprietorIsDoctor==0</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.shareholderIsDoctor==0</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.accessWay==0</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>applyInfo.applyTime==3299rfiwi</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>applyInfo.applyTerm==3</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>loanInfo.loanTerm==3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>applyInfo.applicationPeriod==3</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>applyInfo.productCode==FQ_JK_CKSHD</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>applyInfo.productGroup==1111</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>applyInfo.applySource==ppp</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>applyInfo.financeChannel==0</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>loanInfo.loanTerm==3</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyInfo.applyTerm==3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>loanInfo.cycleInterval==3</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>loanInfo.assetInterestRatePeriod==2</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>loanInfo.userInterestRatePeriod==2</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>loanInfo.repayMethod==AA</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>loanInfo.discountRate==0.01</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>loanInfo.assetInterestRatePeriod==0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>loanInfo.discountRate==0.11</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>applyInfo.applyAmount</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>applyInfo.applyAmount==210000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>loanInfo.loanAmount==210000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>loanInfo.loanAmount==210000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>applyInfo.applyAmount==210000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>bindingCardInfo.bankCardAccountType==4</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>cardInfo.accountProp==0</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>cardInfo.bankCardAccountType==4</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
       <t>personalInfo.fourVerifyResult</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>personalInfo.faceRecognition</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>personalInfo.identityCheckResult</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>personalInfo.identityCheckResult==A</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>personalInfo.faceRecognition==A</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>personalInfo.fourVerifyResult==A</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.isChainInstitution==A</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.isChangeForLegalPerson==0</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.hospitalCategory==2</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.isThreeCertificatesInOne==A</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.corpType==0</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.isAddressConsistent==A</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.cityGrading==0</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.businessLicenseValidDate==dawkk39</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.openingDate==dawkk39</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.operateSiteOwnership==0</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.decorateGrade==0</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.locationGrade==0</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.legalPersonPhoneRealName==A</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.isSamePersonForProprietorAndLegal==A</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.proprietorIsPhoneRealName==A</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.legalPersonIsDoctor==0</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.proprietorIsDoctor==0</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.shareholderIsDoctor==0</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进件申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超出范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>entityInfo.accessWay==0</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>授信申请-超出范围applyInfo.applyTime==fiei1929</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -12635,10 +12633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA402FE-2170-234C-BFCB-80F823858BAC}">
-  <dimension ref="A1:F374"/>
+  <dimension ref="A1:F373"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A12" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -12679,13 +12677,13 @@
         <v>4000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>203</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20">
@@ -12714,7 +12712,7 @@
     </row>
     <row r="5" spans="1:6" ht="20">
       <c r="A5" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="7">
@@ -12726,7 +12724,7 @@
     </row>
     <row r="6" spans="1:6" ht="19">
       <c r="A6" s="16" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="7">
@@ -12738,7 +12736,7 @@
     </row>
     <row r="7" spans="1:6" ht="19">
       <c r="A7" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="7">
@@ -12750,7 +12748,7 @@
     </row>
     <row r="8" spans="1:6" ht="19">
       <c r="A8" s="26" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="7">
@@ -12762,7 +12760,7 @@
     </row>
     <row r="9" spans="1:6" ht="19">
       <c r="A9" s="26" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="7">
@@ -12774,7 +12772,7 @@
     </row>
     <row r="10" spans="1:6" ht="20">
       <c r="A10" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="7">
@@ -12786,7 +12784,7 @@
     </row>
     <row r="11" spans="1:6" ht="20">
       <c r="A11" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="7">
@@ -12798,7 +12796,7 @@
     </row>
     <row r="12" spans="1:6" ht="19">
       <c r="A12" s="16" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="7">
@@ -12810,7 +12808,7 @@
     </row>
     <row r="13" spans="1:6" ht="19">
       <c r="A13" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="7">
@@ -12822,7 +12820,7 @@
     </row>
     <row r="14" spans="1:6" ht="20">
       <c r="A14" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="7">
@@ -12846,7 +12844,7 @@
     </row>
     <row r="16" spans="1:6" ht="20">
       <c r="A16" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="7">
@@ -12857,8 +12855,8 @@
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" ht="20">
-      <c r="A17" s="16" t="s">
-        <v>24</v>
+      <c r="A17" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="7">
@@ -12869,8 +12867,8 @@
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" ht="20">
-      <c r="A18" s="6" t="s">
-        <v>10</v>
+      <c r="A18" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="7">
@@ -12882,7 +12880,7 @@
     </row>
     <row r="19" spans="1:6" ht="20">
       <c r="A19" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="7">
@@ -12893,12 +12891,12 @@
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" ht="20">
-      <c r="A20" s="16" t="s">
-        <v>28</v>
+      <c r="A20" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
@@ -12906,7 +12904,7 @@
     </row>
     <row r="21" spans="1:6" ht="20">
       <c r="A21" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="7">
@@ -12917,12 +12915,12 @@
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" ht="20">
-      <c r="A22" s="6" t="s">
-        <v>12</v>
+      <c r="A22" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="9"/>
@@ -12930,11 +12928,11 @@
     </row>
     <row r="23" spans="1:6" ht="20">
       <c r="A23" s="16" t="s">
-        <v>29</v>
+        <v>291</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="9"/>
@@ -12948,9 +12946,9 @@
       <c r="C24" s="7">
         <v>4000</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6" ht="20">
       <c r="A25" s="6" t="s">
@@ -12965,12 +12963,12 @@
       <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" ht="20">
-      <c r="A26" s="6" t="s">
-        <v>15</v>
+      <c r="A26" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="12"/>
@@ -12978,7 +12976,7 @@
     </row>
     <row r="27" spans="1:6" ht="20">
       <c r="A27" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="19"/>
       <c r="C27" s="7">
@@ -12989,8 +12987,8 @@
       <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:6" ht="20">
-      <c r="A28" s="16" t="s">
-        <v>31</v>
+      <c r="A28" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="B28" s="19"/>
       <c r="C28" s="7">
@@ -13001,12 +12999,12 @@
       <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" ht="20">
-      <c r="A29" s="6" t="s">
-        <v>16</v>
+      <c r="A29" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="B29" s="19"/>
       <c r="C29" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="12"/>
@@ -13014,7 +13012,7 @@
     </row>
     <row r="30" spans="1:6" ht="20">
       <c r="A30" s="16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B30" s="19"/>
       <c r="C30" s="7">
@@ -13026,7 +13024,7 @@
     </row>
     <row r="31" spans="1:6" ht="20">
       <c r="A31" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="19"/>
       <c r="C31" s="7">
@@ -13038,7 +13036,7 @@
     </row>
     <row r="32" spans="1:6" ht="20">
       <c r="A32" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="7">
@@ -13050,7 +13048,7 @@
     </row>
     <row r="33" spans="1:6" ht="20">
       <c r="A33" s="16" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B33" s="19"/>
       <c r="C33" s="7">
@@ -13062,11 +13060,11 @@
     </row>
     <row r="34" spans="1:6" ht="20">
       <c r="A34" s="16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B34" s="19"/>
       <c r="C34" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="12"/>
@@ -13074,11 +13072,11 @@
     </row>
     <row r="35" spans="1:6" ht="20">
       <c r="A35" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="19"/>
       <c r="C35" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="12"/>
@@ -13086,7 +13084,7 @@
     </row>
     <row r="36" spans="1:6" ht="20">
       <c r="A36" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="19"/>
       <c r="C36" s="7">
@@ -13098,7 +13096,7 @@
     </row>
     <row r="37" spans="1:6" ht="20">
       <c r="A37" s="16" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B37" s="19"/>
       <c r="C37" s="7">
@@ -13110,7 +13108,7 @@
     </row>
     <row r="38" spans="1:6" ht="20">
       <c r="A38" s="16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B38" s="19"/>
       <c r="C38" s="7">
@@ -13122,7 +13120,7 @@
     </row>
     <row r="39" spans="1:6" ht="20">
       <c r="A39" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="19"/>
       <c r="C39" s="7">
@@ -13134,11 +13132,11 @@
     </row>
     <row r="40" spans="1:6" ht="20">
       <c r="A40" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="19"/>
       <c r="C40" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="12"/>
@@ -13146,7 +13144,7 @@
     </row>
     <row r="41" spans="1:6" ht="20">
       <c r="A41" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="19"/>
       <c r="C41" s="7">
@@ -13158,7 +13156,7 @@
     </row>
     <row r="42" spans="1:6" ht="20">
       <c r="A42" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="7">
@@ -13170,7 +13168,7 @@
     </row>
     <row r="43" spans="1:6" ht="20">
       <c r="A43" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="19"/>
       <c r="C43" s="7">
@@ -13182,7 +13180,7 @@
     </row>
     <row r="44" spans="1:6" ht="20">
       <c r="A44" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="19"/>
       <c r="C44" s="7">
@@ -13194,7 +13192,7 @@
     </row>
     <row r="45" spans="1:6" ht="20">
       <c r="A45" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="19"/>
       <c r="C45" s="7">
@@ -13206,7 +13204,7 @@
     </row>
     <row r="46" spans="1:6" ht="20">
       <c r="A46" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="19"/>
       <c r="C46" s="7">
@@ -13218,7 +13216,7 @@
     </row>
     <row r="47" spans="1:6" ht="20">
       <c r="A47" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" s="19"/>
       <c r="C47" s="7">
@@ -13230,7 +13228,7 @@
     </row>
     <row r="48" spans="1:6" ht="20">
       <c r="A48" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" s="19"/>
       <c r="C48" s="7">
@@ -13242,7 +13240,7 @@
     </row>
     <row r="49" spans="1:6" ht="20">
       <c r="A49" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" s="19"/>
       <c r="C49" s="7">
@@ -13254,7 +13252,7 @@
     </row>
     <row r="50" spans="1:6" ht="20">
       <c r="A50" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" s="19"/>
       <c r="C50" s="7">
@@ -13266,7 +13264,7 @@
     </row>
     <row r="51" spans="1:6" ht="20">
       <c r="A51" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" s="19"/>
       <c r="C51" s="7">
@@ -13276,13 +13274,13 @@
       <c r="E51" s="12"/>
       <c r="F51" s="13"/>
     </row>
-    <row r="52" spans="1:6" ht="20">
+    <row r="52" spans="1:6" ht="19">
       <c r="A52" s="16" t="s">
-        <v>52</v>
+        <v>206</v>
       </c>
       <c r="B52" s="19"/>
       <c r="C52" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="12"/>
@@ -13290,7 +13288,7 @@
     </row>
     <row r="53" spans="1:6" ht="19">
       <c r="A53" s="16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B53" s="19"/>
       <c r="C53" s="7">
@@ -13302,7 +13300,7 @@
     </row>
     <row r="54" spans="1:6" ht="19">
       <c r="A54" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B54" s="19"/>
       <c r="C54" s="7">
@@ -13314,7 +13312,7 @@
     </row>
     <row r="55" spans="1:6" ht="19">
       <c r="A55" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B55" s="19"/>
       <c r="C55" s="7">
@@ -13326,7 +13324,7 @@
     </row>
     <row r="56" spans="1:6" ht="19">
       <c r="A56" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B56" s="19"/>
       <c r="C56" s="7">
@@ -13338,7 +13336,7 @@
     </row>
     <row r="57" spans="1:6" ht="19">
       <c r="A57" s="16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B57" s="19"/>
       <c r="C57" s="7">
@@ -13350,7 +13348,7 @@
     </row>
     <row r="58" spans="1:6" ht="19">
       <c r="A58" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B58" s="19"/>
       <c r="C58" s="7">
@@ -13362,7 +13360,7 @@
     </row>
     <row r="59" spans="1:6" ht="19">
       <c r="A59" s="16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B59" s="19"/>
       <c r="C59" s="7">
@@ -13374,7 +13372,7 @@
     </row>
     <row r="60" spans="1:6" ht="19">
       <c r="A60" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B60" s="19"/>
       <c r="C60" s="7">
@@ -13386,7 +13384,7 @@
     </row>
     <row r="61" spans="1:6" ht="19">
       <c r="A61" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B61" s="19"/>
       <c r="C61" s="7">
@@ -13398,7 +13396,7 @@
     </row>
     <row r="62" spans="1:6" ht="19">
       <c r="A62" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B62" s="19"/>
       <c r="C62" s="7">
@@ -13410,7 +13408,7 @@
     </row>
     <row r="63" spans="1:6" ht="19">
       <c r="A63" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B63" s="19"/>
       <c r="C63" s="7">
@@ -13422,7 +13420,7 @@
     </row>
     <row r="64" spans="1:6" ht="19">
       <c r="A64" s="16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B64" s="19"/>
       <c r="C64" s="7">
@@ -13432,13 +13430,13 @@
       <c r="E64" s="12"/>
       <c r="F64" s="13"/>
     </row>
-    <row r="65" spans="1:6" ht="19">
+    <row r="65" spans="1:6" ht="20">
       <c r="A65" s="16" t="s">
-        <v>221</v>
+        <v>51</v>
       </c>
       <c r="B65" s="19"/>
       <c r="C65" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="12"/>
@@ -13446,7 +13444,7 @@
     </row>
     <row r="66" spans="1:6" ht="20">
       <c r="A66" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B66" s="19"/>
       <c r="C66" s="7">
@@ -13458,7 +13456,7 @@
     </row>
     <row r="67" spans="1:6" ht="20">
       <c r="A67" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B67" s="19"/>
       <c r="C67" s="7">
@@ -13470,7 +13468,7 @@
     </row>
     <row r="68" spans="1:6" ht="20">
       <c r="A68" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B68" s="19"/>
       <c r="C68" s="7">
@@ -13482,7 +13480,7 @@
     </row>
     <row r="69" spans="1:6" ht="20">
       <c r="A69" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B69" s="19"/>
       <c r="C69" s="7">
@@ -13494,7 +13492,7 @@
     </row>
     <row r="70" spans="1:6" ht="20">
       <c r="A70" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B70" s="19"/>
       <c r="C70" s="7">
@@ -13506,7 +13504,7 @@
     </row>
     <row r="71" spans="1:6" ht="20">
       <c r="A71" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B71" s="19"/>
       <c r="C71" s="7">
@@ -13516,21 +13514,21 @@
       <c r="E71" s="12"/>
       <c r="F71" s="13"/>
     </row>
-    <row r="72" spans="1:6" ht="20">
+    <row r="72" spans="1:6" ht="19">
       <c r="A72" s="16" t="s">
-        <v>59</v>
+        <v>219</v>
       </c>
       <c r="B72" s="19"/>
       <c r="C72" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="12"/>
       <c r="F72" s="13"/>
     </row>
-    <row r="73" spans="1:6" ht="19">
+    <row r="73" spans="1:6" ht="20">
       <c r="A73" s="16" t="s">
-        <v>222</v>
+        <v>59</v>
       </c>
       <c r="B73" s="19"/>
       <c r="C73" s="7">
@@ -13542,7 +13540,7 @@
     </row>
     <row r="74" spans="1:6" ht="20">
       <c r="A74" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B74" s="19"/>
       <c r="C74" s="7">
@@ -13554,7 +13552,7 @@
     </row>
     <row r="75" spans="1:6" ht="20">
       <c r="A75" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B75" s="19"/>
       <c r="C75" s="7">
@@ -13566,7 +13564,7 @@
     </row>
     <row r="76" spans="1:6" ht="20">
       <c r="A76" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B76" s="19"/>
       <c r="C76" s="7">
@@ -13578,11 +13576,11 @@
     </row>
     <row r="77" spans="1:6" ht="20">
       <c r="A77" s="16" t="s">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c r="B77" s="19"/>
       <c r="C77" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="12"/>
@@ -13590,11 +13588,11 @@
     </row>
     <row r="78" spans="1:6" ht="20">
       <c r="A78" s="16" t="s">
-        <v>178</v>
+        <v>63</v>
       </c>
       <c r="B78" s="19"/>
       <c r="C78" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="12"/>
@@ -13602,7 +13600,7 @@
     </row>
     <row r="79" spans="1:6" ht="20">
       <c r="A79" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B79" s="19"/>
       <c r="C79" s="7">
@@ -13614,7 +13612,7 @@
     </row>
     <row r="80" spans="1:6" ht="20">
       <c r="A80" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B80" s="19"/>
       <c r="C80" s="7">
@@ -13626,7 +13624,7 @@
     </row>
     <row r="81" spans="1:6" ht="20">
       <c r="A81" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B81" s="19"/>
       <c r="C81" s="7">
@@ -13638,7 +13636,7 @@
     </row>
     <row r="82" spans="1:6" ht="20">
       <c r="A82" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B82" s="19"/>
       <c r="C82" s="7">
@@ -13650,7 +13648,7 @@
     </row>
     <row r="83" spans="1:6" ht="20">
       <c r="A83" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B83" s="19"/>
       <c r="C83" s="7">
@@ -13662,7 +13660,7 @@
     </row>
     <row r="84" spans="1:6" ht="20">
       <c r="A84" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B84" s="19"/>
       <c r="C84" s="7">
@@ -13674,7 +13672,7 @@
     </row>
     <row r="85" spans="1:6" ht="20">
       <c r="A85" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B85" s="19"/>
       <c r="C85" s="7">
@@ -13686,7 +13684,7 @@
     </row>
     <row r="86" spans="1:6" ht="20">
       <c r="A86" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B86" s="19"/>
       <c r="C86" s="7">
@@ -13698,11 +13696,11 @@
     </row>
     <row r="87" spans="1:6" ht="20">
       <c r="A87" s="16" t="s">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="B87" s="19"/>
       <c r="C87" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="12"/>
@@ -13710,7 +13708,7 @@
     </row>
     <row r="88" spans="1:6" ht="20">
       <c r="A88" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B88" s="19"/>
       <c r="C88" s="7">
@@ -13722,7 +13720,7 @@
     </row>
     <row r="89" spans="1:6" ht="20">
       <c r="A89" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B89" s="19"/>
       <c r="C89" s="7">
@@ -13734,11 +13732,11 @@
     </row>
     <row r="90" spans="1:6" ht="20">
       <c r="A90" s="16" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="B90" s="19"/>
       <c r="C90" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="12"/>
@@ -13746,7 +13744,7 @@
     </row>
     <row r="91" spans="1:6" ht="20">
       <c r="A91" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B91" s="19"/>
       <c r="C91" s="7">
@@ -13758,7 +13756,7 @@
     </row>
     <row r="92" spans="1:6" ht="20">
       <c r="A92" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B92" s="19"/>
       <c r="C92" s="7">
@@ -13770,7 +13768,7 @@
     </row>
     <row r="93" spans="1:6" ht="20">
       <c r="A93" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B93" s="19"/>
       <c r="C93" s="7">
@@ -13782,7 +13780,7 @@
     </row>
     <row r="94" spans="1:6" ht="20">
       <c r="A94" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B94" s="19"/>
       <c r="C94" s="7">
@@ -13794,7 +13792,7 @@
     </row>
     <row r="95" spans="1:6" ht="20">
       <c r="A95" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B95" s="19"/>
       <c r="C95" s="7">
@@ -13806,11 +13804,11 @@
     </row>
     <row r="96" spans="1:6" ht="20">
       <c r="A96" s="16" t="s">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="B96" s="19"/>
       <c r="C96" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="12"/>
@@ -13818,7 +13816,7 @@
     </row>
     <row r="97" spans="1:6" ht="20">
       <c r="A97" s="16" t="s">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="B97" s="19"/>
       <c r="C97" s="7">
@@ -13830,7 +13828,7 @@
     </row>
     <row r="98" spans="1:6" ht="20">
       <c r="A98" s="16" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="B98" s="19"/>
       <c r="C98" s="7">
@@ -13842,11 +13840,11 @@
     </row>
     <row r="99" spans="1:6" ht="20">
       <c r="A99" s="16" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="B99" s="19"/>
       <c r="C99" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="12"/>
@@ -13854,7 +13852,7 @@
     </row>
     <row r="100" spans="1:6" ht="20">
       <c r="A100" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B100" s="19"/>
       <c r="C100" s="7">
@@ -13866,7 +13864,7 @@
     </row>
     <row r="101" spans="1:6" ht="20">
       <c r="A101" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B101" s="19"/>
       <c r="C101" s="7">
@@ -13878,7 +13876,7 @@
     </row>
     <row r="102" spans="1:6" ht="20">
       <c r="A102" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B102" s="19"/>
       <c r="C102" s="7">
@@ -13890,7 +13888,7 @@
     </row>
     <row r="103" spans="1:6" ht="20">
       <c r="A103" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B103" s="19"/>
       <c r="C103" s="7">
@@ -13902,11 +13900,11 @@
     </row>
     <row r="104" spans="1:6" ht="20">
       <c r="A104" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B104" s="19"/>
       <c r="C104" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="12"/>
@@ -13914,11 +13912,11 @@
     </row>
     <row r="105" spans="1:6" ht="20">
       <c r="A105" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B105" s="19"/>
       <c r="C105" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="12"/>
@@ -13926,11 +13924,11 @@
     </row>
     <row r="106" spans="1:6" ht="20">
       <c r="A106" s="16" t="s">
-        <v>87</v>
+        <v>182</v>
       </c>
       <c r="B106" s="19"/>
       <c r="C106" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="12"/>
@@ -13938,11 +13936,11 @@
     </row>
     <row r="107" spans="1:6" ht="20">
       <c r="A107" s="16" t="s">
-        <v>184</v>
+        <v>86</v>
       </c>
       <c r="B107" s="19"/>
       <c r="C107" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="12"/>
@@ -13950,7 +13948,7 @@
     </row>
     <row r="108" spans="1:6" ht="20">
       <c r="A108" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B108" s="19"/>
       <c r="C108" s="7">
@@ -13962,7 +13960,7 @@
     </row>
     <row r="109" spans="1:6" ht="20">
       <c r="A109" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B109" s="19"/>
       <c r="C109" s="7">
@@ -13974,7 +13972,7 @@
     </row>
     <row r="110" spans="1:6" ht="20">
       <c r="A110" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B110" s="19"/>
       <c r="C110" s="7">
@@ -13986,7 +13984,7 @@
     </row>
     <row r="111" spans="1:6" ht="20">
       <c r="A111" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B111" s="19"/>
       <c r="C111" s="7">
@@ -13998,7 +13996,7 @@
     </row>
     <row r="112" spans="1:6" ht="20">
       <c r="A112" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B112" s="19"/>
       <c r="C112" s="7">
@@ -14010,7 +14008,7 @@
     </row>
     <row r="113" spans="1:6" ht="20">
       <c r="A113" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B113" s="19"/>
       <c r="C113" s="7">
@@ -14022,7 +14020,7 @@
     </row>
     <row r="114" spans="1:6" ht="20">
       <c r="A114" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B114" s="19"/>
       <c r="C114" s="7">
@@ -14034,7 +14032,7 @@
     </row>
     <row r="115" spans="1:6" ht="20">
       <c r="A115" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B115" s="19"/>
       <c r="C115" s="7">
@@ -14046,11 +14044,11 @@
     </row>
     <row r="116" spans="1:6" ht="20">
       <c r="A116" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B116" s="19"/>
       <c r="C116" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="12"/>
@@ -14058,11 +14056,11 @@
     </row>
     <row r="117" spans="1:6" ht="20">
       <c r="A117" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B117" s="19"/>
       <c r="C117" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D117" s="11"/>
       <c r="E117" s="12"/>
@@ -14070,11 +14068,11 @@
     </row>
     <row r="118" spans="1:6" ht="20">
       <c r="A118" s="16" t="s">
-        <v>98</v>
+        <v>183</v>
       </c>
       <c r="B118" s="19"/>
       <c r="C118" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="12"/>
@@ -14082,7 +14080,7 @@
     </row>
     <row r="119" spans="1:6" ht="20">
       <c r="A119" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B119" s="19"/>
       <c r="C119" s="7">
@@ -14094,7 +14092,7 @@
     </row>
     <row r="120" spans="1:6" ht="20">
       <c r="A120" s="16" t="s">
-        <v>186</v>
+        <v>97</v>
       </c>
       <c r="B120" s="19"/>
       <c r="C120" s="7">
@@ -14106,11 +14104,11 @@
     </row>
     <row r="121" spans="1:6" ht="20">
       <c r="A121" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B121" s="19"/>
       <c r="C121" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D121" s="11"/>
       <c r="E121" s="12"/>
@@ -14118,7 +14116,7 @@
     </row>
     <row r="122" spans="1:6" ht="20">
       <c r="A122" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B122" s="19"/>
       <c r="C122" s="7">
@@ -14130,7 +14128,7 @@
     </row>
     <row r="123" spans="1:6" ht="20">
       <c r="A123" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B123" s="19"/>
       <c r="C123" s="7">
@@ -14142,7 +14140,7 @@
     </row>
     <row r="124" spans="1:6" ht="20">
       <c r="A124" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B124" s="19"/>
       <c r="C124" s="7">
@@ -14154,11 +14152,11 @@
     </row>
     <row r="125" spans="1:6" ht="20">
       <c r="A125" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B125" s="19"/>
       <c r="C125" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D125" s="11"/>
       <c r="E125" s="12"/>
@@ -14166,11 +14164,11 @@
     </row>
     <row r="126" spans="1:6" ht="20">
       <c r="A126" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B126" s="19"/>
       <c r="C126" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D126" s="11"/>
       <c r="E126" s="12"/>
@@ -14178,7 +14176,7 @@
     </row>
     <row r="127" spans="1:6" ht="20">
       <c r="A127" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B127" s="19"/>
       <c r="C127" s="7">
@@ -14190,7 +14188,7 @@
     </row>
     <row r="128" spans="1:6" ht="20">
       <c r="A128" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B128" s="19"/>
       <c r="C128" s="7">
@@ -14202,7 +14200,7 @@
     </row>
     <row r="129" spans="1:6" ht="20">
       <c r="A129" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B129" s="19"/>
       <c r="C129" s="7">
@@ -14214,7 +14212,7 @@
     </row>
     <row r="130" spans="1:6" ht="20">
       <c r="A130" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B130" s="19"/>
       <c r="C130" s="7">
@@ -14226,7 +14224,7 @@
     </row>
     <row r="131" spans="1:6" ht="20">
       <c r="A131" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B131" s="19"/>
       <c r="C131" s="7">
@@ -14238,7 +14236,7 @@
     </row>
     <row r="132" spans="1:6" ht="20">
       <c r="A132" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B132" s="19"/>
       <c r="C132" s="7">
@@ -14250,7 +14248,7 @@
     </row>
     <row r="133" spans="1:6" ht="20">
       <c r="A133" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B133" s="19"/>
       <c r="C133" s="7">
@@ -14262,7 +14260,7 @@
     </row>
     <row r="134" spans="1:6" ht="20">
       <c r="A134" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B134" s="19"/>
       <c r="C134" s="7">
@@ -14274,7 +14272,7 @@
     </row>
     <row r="135" spans="1:6" ht="20">
       <c r="A135" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B135" s="19"/>
       <c r="C135" s="7">
@@ -14286,7 +14284,7 @@
     </row>
     <row r="136" spans="1:6" ht="20">
       <c r="A136" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B136" s="19"/>
       <c r="C136" s="7">
@@ -14298,7 +14296,7 @@
     </row>
     <row r="137" spans="1:6" ht="20">
       <c r="A137" s="16" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B137" s="19"/>
       <c r="C137" s="7">
@@ -14308,9 +14306,9 @@
       <c r="E137" s="12"/>
       <c r="F137" s="13"/>
     </row>
-    <row r="138" spans="1:6" ht="20">
+    <row r="138" spans="1:6" ht="19">
       <c r="A138" s="16" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="B138" s="19"/>
       <c r="C138" s="7">
@@ -14322,7 +14320,7 @@
     </row>
     <row r="139" spans="1:6" ht="19">
       <c r="A139" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B139" s="19"/>
       <c r="C139" s="7">
@@ -14334,7 +14332,7 @@
     </row>
     <row r="140" spans="1:6" ht="19">
       <c r="A140" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B140" s="19"/>
       <c r="C140" s="7">
@@ -14346,7 +14344,7 @@
     </row>
     <row r="141" spans="1:6" ht="19">
       <c r="A141" s="16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B141" s="19"/>
       <c r="C141" s="7">
@@ -14358,7 +14356,7 @@
     </row>
     <row r="142" spans="1:6" ht="19">
       <c r="A142" s="16" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B142" s="19"/>
       <c r="C142" s="7">
@@ -14370,7 +14368,7 @@
     </row>
     <row r="143" spans="1:6" ht="19">
       <c r="A143" s="16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B143" s="19"/>
       <c r="C143" s="7">
@@ -14382,7 +14380,7 @@
     </row>
     <row r="144" spans="1:6" ht="19">
       <c r="A144" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B144" s="19"/>
       <c r="C144" s="7">
@@ -14394,7 +14392,7 @@
     </row>
     <row r="145" spans="1:6" ht="19">
       <c r="A145" s="16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B145" s="19"/>
       <c r="C145" s="7">
@@ -14406,7 +14404,7 @@
     </row>
     <row r="146" spans="1:6" ht="19">
       <c r="A146" s="16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B146" s="19"/>
       <c r="C146" s="7">
@@ -14418,7 +14416,7 @@
     </row>
     <row r="147" spans="1:6" ht="19">
       <c r="A147" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B147" s="19"/>
       <c r="C147" s="7">
@@ -14430,7 +14428,7 @@
     </row>
     <row r="148" spans="1:6" ht="19">
       <c r="A148" s="16" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B148" s="19"/>
       <c r="C148" s="7">
@@ -14442,7 +14440,7 @@
     </row>
     <row r="149" spans="1:6" ht="19">
       <c r="A149" s="16" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B149" s="19"/>
       <c r="C149" s="7">
@@ -14454,7 +14452,7 @@
     </row>
     <row r="150" spans="1:6" ht="19">
       <c r="A150" s="16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B150" s="19"/>
       <c r="C150" s="7">
@@ -14466,7 +14464,7 @@
     </row>
     <row r="151" spans="1:6" ht="19">
       <c r="A151" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B151" s="19"/>
       <c r="C151" s="7">
@@ -14478,7 +14476,7 @@
     </row>
     <row r="152" spans="1:6" ht="19">
       <c r="A152" s="16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B152" s="19"/>
       <c r="C152" s="7">
@@ -14490,7 +14488,7 @@
     </row>
     <row r="153" spans="1:6" ht="19">
       <c r="A153" s="16" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B153" s="19"/>
       <c r="C153" s="7">
@@ -14502,7 +14500,7 @@
     </row>
     <row r="154" spans="1:6" ht="19">
       <c r="A154" s="16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B154" s="19"/>
       <c r="C154" s="7">
@@ -14514,7 +14512,7 @@
     </row>
     <row r="155" spans="1:6" ht="19">
       <c r="A155" s="16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B155" s="19"/>
       <c r="C155" s="7">
@@ -14526,7 +14524,7 @@
     </row>
     <row r="156" spans="1:6" ht="19">
       <c r="A156" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B156" s="19"/>
       <c r="C156" s="7">
@@ -14536,9 +14534,9 @@
       <c r="E156" s="12"/>
       <c r="F156" s="13"/>
     </row>
-    <row r="157" spans="1:6" ht="19">
+    <row r="157" spans="1:6" ht="20">
       <c r="A157" s="16" t="s">
-        <v>241</v>
+        <v>58</v>
       </c>
       <c r="B157" s="19"/>
       <c r="C157" s="7">
@@ -14550,7 +14548,7 @@
     </row>
     <row r="158" spans="1:6" ht="20">
       <c r="A158" s="16" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="B158" s="19"/>
       <c r="C158" s="7">
@@ -14561,12 +14559,12 @@
       <c r="F158" s="13"/>
     </row>
     <row r="159" spans="1:6" ht="20">
-      <c r="A159" s="16" t="s">
-        <v>116</v>
+      <c r="A159" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B159" s="19"/>
       <c r="C159" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D159" s="11"/>
       <c r="E159" s="12"/>
@@ -14578,7 +14576,7 @@
       </c>
       <c r="B160" s="19"/>
       <c r="C160" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D160" s="11"/>
       <c r="E160" s="12"/>
@@ -14590,15 +14588,15 @@
       </c>
       <c r="B161" s="19"/>
       <c r="C161" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D161" s="11"/>
       <c r="E161" s="12"/>
       <c r="F161" s="13"/>
     </row>
     <row r="162" spans="1:6" ht="20">
-      <c r="A162" s="6" t="s">
-        <v>19</v>
+      <c r="A162" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="B162" s="19"/>
       <c r="C162" s="7">
@@ -14610,11 +14608,11 @@
     </row>
     <row r="163" spans="1:6" ht="20">
       <c r="A163" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B163" s="19"/>
       <c r="C163" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D163" s="11"/>
       <c r="E163" s="12"/>
@@ -14622,7 +14620,7 @@
     </row>
     <row r="164" spans="1:6" ht="20">
       <c r="A164" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B164" s="19"/>
       <c r="C164" s="7">
@@ -14634,7 +14632,7 @@
     </row>
     <row r="165" spans="1:6" ht="20">
       <c r="A165" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B165" s="19"/>
       <c r="C165" s="7">
@@ -14646,7 +14644,7 @@
     </row>
     <row r="166" spans="1:6" ht="20">
       <c r="A166" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B166" s="19"/>
       <c r="C166" s="7">
@@ -14658,7 +14656,7 @@
     </row>
     <row r="167" spans="1:6" ht="20">
       <c r="A167" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B167" s="19"/>
       <c r="C167" s="7">
@@ -14670,11 +14668,11 @@
     </row>
     <row r="168" spans="1:6" ht="20">
       <c r="A168" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B168" s="19"/>
       <c r="C168" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D168" s="11"/>
       <c r="E168" s="12"/>
@@ -14682,11 +14680,11 @@
     </row>
     <row r="169" spans="1:6" ht="20">
       <c r="A169" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B169" s="19"/>
       <c r="C169" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D169" s="11"/>
       <c r="E169" s="12"/>
@@ -14694,7 +14692,7 @@
     </row>
     <row r="170" spans="1:6" ht="20">
       <c r="A170" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B170" s="19"/>
       <c r="C170" s="7">
@@ -14706,7 +14704,7 @@
     </row>
     <row r="171" spans="1:6" ht="20">
       <c r="A171" s="16" t="s">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="B171" s="19"/>
       <c r="C171" s="7">
@@ -14718,7 +14716,7 @@
     </row>
     <row r="172" spans="1:6" ht="20">
       <c r="A172" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B172" s="19"/>
       <c r="C172" s="7">
@@ -14730,7 +14728,7 @@
     </row>
     <row r="173" spans="1:6" ht="20">
       <c r="A173" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B173" s="19"/>
       <c r="C173" s="7">
@@ -14742,7 +14740,7 @@
     </row>
     <row r="174" spans="1:6" ht="20">
       <c r="A174" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B174" s="19"/>
       <c r="C174" s="7">
@@ -14754,11 +14752,11 @@
     </row>
     <row r="175" spans="1:6" ht="20">
       <c r="A175" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B175" s="19"/>
       <c r="C175" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D175" s="11"/>
       <c r="E175" s="12"/>
@@ -14766,24 +14764,20 @@
     </row>
     <row r="176" spans="1:6" ht="20">
       <c r="A176" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B176" s="19"/>
       <c r="C176" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D176" s="11"/>
       <c r="E176" s="12"/>
       <c r="F176" s="13"/>
     </row>
-    <row r="177" spans="1:6" ht="20">
-      <c r="A177" s="16" t="s">
-        <v>192</v>
-      </c>
+    <row r="177" spans="1:6" ht="19">
+      <c r="A177" s="6"/>
       <c r="B177" s="19"/>
-      <c r="C177" s="7">
-        <v>4000</v>
-      </c>
+      <c r="C177" s="7"/>
       <c r="D177" s="11"/>
       <c r="E177" s="12"/>
       <c r="F177" s="13"/>
@@ -14885,16 +14879,16 @@
       <c r="F189" s="13"/>
     </row>
     <row r="190" spans="1:6" ht="19">
-      <c r="A190" s="6"/>
-      <c r="B190" s="19"/>
+      <c r="A190" s="16"/>
+      <c r="B190" s="20"/>
       <c r="C190" s="7"/>
       <c r="D190" s="11"/>
       <c r="E190" s="12"/>
       <c r="F190" s="13"/>
     </row>
     <row r="191" spans="1:6" ht="19">
-      <c r="A191" s="16"/>
-      <c r="B191" s="20"/>
+      <c r="A191" s="6"/>
+      <c r="B191" s="19"/>
       <c r="C191" s="7"/>
       <c r="D191" s="11"/>
       <c r="E191" s="12"/>
@@ -16325,9 +16319,9 @@
       <c r="F369" s="13"/>
     </row>
     <row r="370" spans="1:6" ht="19">
-      <c r="A370" s="6"/>
-      <c r="B370" s="19"/>
-      <c r="C370" s="7"/>
+      <c r="A370" s="14"/>
+      <c r="B370" s="21"/>
+      <c r="C370" s="15"/>
       <c r="D370" s="11"/>
       <c r="E370" s="12"/>
       <c r="F370" s="13"/>
@@ -16355,14 +16349,6 @@
       <c r="D373" s="11"/>
       <c r="E373" s="12"/>
       <c r="F373" s="13"/>
-    </row>
-    <row r="374" spans="1:6" ht="19">
-      <c r="A374" s="14"/>
-      <c r="B374" s="21"/>
-      <c r="C374" s="15"/>
-      <c r="D374" s="11"/>
-      <c r="E374" s="12"/>
-      <c r="F374" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -16374,8 +16360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DA53EC-1037-824F-AE67-3CD7020CE1C6}">
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -16409,25 +16395,25 @@
     </row>
     <row r="2" spans="1:6" ht="409.6">
       <c r="A2" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="3">
         <v>4000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19">
       <c r="A3" s="22" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="3">
@@ -16436,7 +16422,7 @@
     </row>
     <row r="4" spans="1:6" ht="20">
       <c r="A4" s="22" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="3">
@@ -16445,7 +16431,7 @@
     </row>
     <row r="5" spans="1:6" ht="20">
       <c r="A5" s="22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="3">
@@ -16454,7 +16440,7 @@
     </row>
     <row r="6" spans="1:6" ht="20">
       <c r="A6" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="3">
@@ -16463,7 +16449,7 @@
     </row>
     <row r="7" spans="1:6" ht="20">
       <c r="A7" s="22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="3">
@@ -16472,7 +16458,7 @@
     </row>
     <row r="8" spans="1:6" ht="20">
       <c r="A8" s="22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="3">
@@ -16481,7 +16467,7 @@
     </row>
     <row r="9" spans="1:6" ht="20">
       <c r="A9" s="22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="3">
@@ -16490,7 +16476,7 @@
     </row>
     <row r="10" spans="1:6" ht="19">
       <c r="A10" s="22" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="3">
@@ -16499,10 +16485,10 @@
     </row>
     <row r="11" spans="1:6" ht="20">
       <c r="A11" s="22" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C11" s="3">
         <v>4000</v>
@@ -16510,7 +16496,7 @@
     </row>
     <row r="12" spans="1:6" ht="19">
       <c r="A12" s="22" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="3">
@@ -16519,7 +16505,7 @@
     </row>
     <row r="13" spans="1:6" ht="19">
       <c r="A13" s="22" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="3">
@@ -16528,7 +16514,7 @@
     </row>
     <row r="14" spans="1:6" ht="19">
       <c r="A14" s="22" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="3">
@@ -16537,7 +16523,7 @@
     </row>
     <row r="15" spans="1:6" ht="19">
       <c r="A15" s="22" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="3">
@@ -16546,7 +16532,7 @@
     </row>
     <row r="16" spans="1:6" ht="19">
       <c r="A16" s="22" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="3">
@@ -16555,10 +16541,10 @@
     </row>
     <row r="17" spans="1:3" ht="20">
       <c r="A17" s="22" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C17" s="3">
         <v>4000</v>
@@ -16566,7 +16552,7 @@
     </row>
     <row r="18" spans="1:3" ht="20">
       <c r="A18" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="3">
@@ -16575,7 +16561,7 @@
     </row>
     <row r="19" spans="1:3" ht="20">
       <c r="A19" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="3">
@@ -16584,7 +16570,7 @@
     </row>
     <row r="20" spans="1:3" ht="20">
       <c r="A20" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="3">
@@ -16593,7 +16579,7 @@
     </row>
     <row r="21" spans="1:3" ht="20">
       <c r="A21" s="22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="3">
@@ -16602,7 +16588,7 @@
     </row>
     <row r="22" spans="1:3" ht="20">
       <c r="A22" s="22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="3">
@@ -16611,7 +16597,7 @@
     </row>
     <row r="23" spans="1:3" ht="20">
       <c r="A23" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="3">
@@ -16620,7 +16606,7 @@
     </row>
     <row r="24" spans="1:3" ht="20">
       <c r="A24" s="22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="3">
@@ -16629,7 +16615,7 @@
     </row>
     <row r="25" spans="1:3" ht="20">
       <c r="A25" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="3">
@@ -16638,7 +16624,7 @@
     </row>
     <row r="26" spans="1:3" ht="20">
       <c r="A26" s="22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="3">
@@ -16647,7 +16633,7 @@
     </row>
     <row r="27" spans="1:3" ht="20">
       <c r="A27" s="22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="3">
@@ -16656,10 +16642,10 @@
     </row>
     <row r="28" spans="1:3" ht="20">
       <c r="A28" s="22" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C28" s="3">
         <v>4000</v>
@@ -16667,7 +16653,7 @@
     </row>
     <row r="29" spans="1:3" ht="19">
       <c r="A29" s="22" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="3">
@@ -16676,7 +16662,7 @@
     </row>
     <row r="30" spans="1:3" ht="19">
       <c r="A30" s="22" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="3">
@@ -16685,7 +16671,7 @@
     </row>
     <row r="31" spans="1:3" ht="19">
       <c r="A31" s="22" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="3">
@@ -16694,7 +16680,7 @@
     </row>
     <row r="32" spans="1:3" ht="19">
       <c r="A32" s="22" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B32" s="18"/>
       <c r="C32" s="3">
@@ -16703,7 +16689,7 @@
     </row>
     <row r="33" spans="1:3" ht="19">
       <c r="A33" s="22" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B33" s="18"/>
       <c r="C33" s="3">
@@ -16712,10 +16698,10 @@
     </row>
     <row r="34" spans="1:3" ht="20">
       <c r="A34" s="22" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C34" s="3">
         <v>4000</v>
@@ -16723,10 +16709,10 @@
     </row>
     <row r="35" spans="1:3" ht="20">
       <c r="A35" s="22" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C35" s="3">
         <v>4000</v>
@@ -16734,7 +16720,7 @@
     </row>
     <row r="36" spans="1:3" ht="20">
       <c r="A36" s="22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B36" s="18"/>
       <c r="C36" s="3">
@@ -16743,7 +16729,7 @@
     </row>
     <row r="37" spans="1:3" ht="20">
       <c r="A37" s="22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B37" s="18"/>
       <c r="C37" s="3">
@@ -16752,7 +16738,7 @@
     </row>
     <row r="38" spans="1:3" ht="20">
       <c r="A38" s="22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B38" s="18"/>
       <c r="C38" s="3">
@@ -16761,7 +16747,7 @@
     </row>
     <row r="39" spans="1:3" ht="20">
       <c r="A39" s="22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B39" s="18"/>
       <c r="C39" s="3">
@@ -16770,7 +16756,7 @@
     </row>
     <row r="40" spans="1:3" ht="20">
       <c r="A40" s="22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B40" s="18"/>
       <c r="C40" s="3">
@@ -16779,7 +16765,7 @@
     </row>
     <row r="41" spans="1:3" ht="20">
       <c r="A41" s="22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B41" s="18"/>
       <c r="C41" s="3">
@@ -16788,7 +16774,7 @@
     </row>
     <row r="42" spans="1:3" ht="20">
       <c r="A42" s="22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="3">
@@ -16797,7 +16783,7 @@
     </row>
     <row r="43" spans="1:3" ht="20">
       <c r="A43" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B43" s="18"/>
       <c r="C43" s="3">
@@ -16806,7 +16792,7 @@
     </row>
     <row r="44" spans="1:3" ht="20">
       <c r="A44" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="3">
@@ -16815,7 +16801,7 @@
     </row>
     <row r="45" spans="1:3" ht="20">
       <c r="A45" s="22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B45" s="18"/>
       <c r="C45" s="3">
@@ -16824,7 +16810,7 @@
     </row>
     <row r="46" spans="1:3" ht="20">
       <c r="A46" s="22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B46" s="18"/>
       <c r="C46" s="3">
@@ -16833,7 +16819,7 @@
     </row>
     <row r="47" spans="1:3" ht="19">
       <c r="A47" s="22" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B47" s="18"/>
       <c r="C47" s="3">
@@ -16842,7 +16828,7 @@
     </row>
     <row r="48" spans="1:3" ht="19">
       <c r="A48" s="22" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B48" s="18"/>
       <c r="C48" s="3">
@@ -16851,7 +16837,7 @@
     </row>
     <row r="49" spans="1:3" ht="20">
       <c r="A49" s="22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B49" s="18"/>
       <c r="C49" s="3">
@@ -16860,7 +16846,7 @@
     </row>
     <row r="50" spans="1:3" ht="20">
       <c r="A50" s="22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B50" s="18"/>
       <c r="C50" s="3">
@@ -16869,7 +16855,7 @@
     </row>
     <row r="51" spans="1:3" ht="20">
       <c r="A51" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B51" s="18"/>
       <c r="C51" s="3">
@@ -16878,7 +16864,7 @@
     </row>
     <row r="52" spans="1:3" ht="19">
       <c r="A52" s="22" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B52" s="18"/>
       <c r="C52" s="3">
@@ -16887,7 +16873,7 @@
     </row>
     <row r="53" spans="1:3" ht="19">
       <c r="A53" s="22" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B53" s="18"/>
       <c r="C53" s="3">
@@ -16896,7 +16882,7 @@
     </row>
     <row r="54" spans="1:3" ht="19">
       <c r="A54" s="22" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B54" s="18"/>
       <c r="C54" s="3">
@@ -16905,7 +16891,7 @@
     </row>
     <row r="55" spans="1:3" ht="19">
       <c r="A55" s="22" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B55" s="18"/>
       <c r="C55" s="3">
@@ -16914,7 +16900,7 @@
     </row>
     <row r="56" spans="1:3" ht="19">
       <c r="A56" s="22" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B56" s="18"/>
       <c r="C56" s="3">
@@ -16923,7 +16909,7 @@
     </row>
     <row r="57" spans="1:3" ht="19">
       <c r="A57" s="22" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B57" s="18"/>
       <c r="C57" s="3">
@@ -16932,7 +16918,7 @@
     </row>
     <row r="58" spans="1:3" ht="20">
       <c r="A58" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B58" s="18"/>
       <c r="C58" s="3">
@@ -16941,7 +16927,7 @@
     </row>
     <row r="59" spans="1:3" ht="20">
       <c r="A59" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B59" s="18"/>
       <c r="C59" s="3">
@@ -16950,7 +16936,7 @@
     </row>
     <row r="60" spans="1:3" ht="20">
       <c r="A60" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B60" s="18"/>
       <c r="C60" s="3">
@@ -16959,7 +16945,7 @@
     </row>
     <row r="61" spans="1:3" ht="20">
       <c r="A61" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B61" s="18"/>
       <c r="C61" s="3">
@@ -16968,7 +16954,7 @@
     </row>
     <row r="62" spans="1:3" ht="20">
       <c r="A62" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B62" s="18"/>
       <c r="C62" s="3">
@@ -16977,7 +16963,7 @@
     </row>
     <row r="63" spans="1:3" ht="20">
       <c r="A63" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B63" s="18"/>
       <c r="C63" s="3">
@@ -16986,7 +16972,7 @@
     </row>
     <row r="64" spans="1:3" ht="20">
       <c r="A64" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B64" s="18"/>
       <c r="C64" s="3">
@@ -16995,7 +16981,7 @@
     </row>
     <row r="65" spans="1:3" ht="20">
       <c r="A65" s="22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B65" s="18"/>
       <c r="C65" s="3">
@@ -17004,7 +16990,7 @@
     </row>
     <row r="66" spans="1:3" ht="20">
       <c r="A66" s="22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B66" s="18"/>
       <c r="C66" s="3">
@@ -17013,7 +16999,7 @@
     </row>
     <row r="67" spans="1:3" ht="20">
       <c r="A67" s="22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B67" s="18"/>
       <c r="C67" s="3">
@@ -17022,7 +17008,7 @@
     </row>
     <row r="68" spans="1:3" ht="20">
       <c r="A68" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B68" s="18"/>
       <c r="C68" s="3">
@@ -17031,7 +17017,7 @@
     </row>
     <row r="69" spans="1:3" ht="20">
       <c r="A69" s="22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B69" s="18"/>
       <c r="C69" s="3">
@@ -17040,7 +17026,7 @@
     </row>
     <row r="70" spans="1:3" ht="20">
       <c r="A70" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B70" s="18"/>
       <c r="C70" s="3">
@@ -17049,7 +17035,7 @@
     </row>
     <row r="71" spans="1:3" ht="20">
       <c r="A71" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B71" s="18"/>
       <c r="C71" s="3">
@@ -17058,7 +17044,7 @@
     </row>
     <row r="72" spans="1:3" ht="20">
       <c r="A72" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B72" s="24"/>
       <c r="C72" s="25">
@@ -17067,7 +17053,7 @@
     </row>
     <row r="73" spans="1:3" ht="19">
       <c r="A73" s="23" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B73" s="24"/>
       <c r="C73" s="25">
@@ -17076,7 +17062,7 @@
     </row>
     <row r="74" spans="1:3" ht="19">
       <c r="A74" s="23" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B74" s="24"/>
       <c r="C74" s="25">
@@ -17085,7 +17071,7 @@
     </row>
     <row r="75" spans="1:3" ht="19">
       <c r="A75" s="23" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B75" s="24"/>
       <c r="C75" s="25">
@@ -17094,7 +17080,7 @@
     </row>
     <row r="76" spans="1:3" ht="19">
       <c r="A76" s="23" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B76" s="24"/>
       <c r="C76" s="25">
@@ -17103,7 +17089,7 @@
     </row>
     <row r="77" spans="1:3" ht="19">
       <c r="A77" s="23" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B77" s="24"/>
       <c r="C77" s="25">
@@ -17112,7 +17098,7 @@
     </row>
     <row r="78" spans="1:3" ht="19">
       <c r="A78" s="23" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B78" s="24"/>
       <c r="C78" s="25">
@@ -17121,7 +17107,7 @@
     </row>
     <row r="79" spans="1:3" ht="19">
       <c r="A79" s="23" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B79" s="24"/>
       <c r="C79" s="25">
@@ -17130,7 +17116,7 @@
     </row>
     <row r="80" spans="1:3" ht="19">
       <c r="A80" s="23" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B80" s="24"/>
       <c r="C80" s="25">
@@ -17139,7 +17125,7 @@
     </row>
     <row r="81" spans="1:3" ht="19">
       <c r="A81" s="23" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B81" s="24"/>
       <c r="C81" s="25">
@@ -17148,7 +17134,7 @@
     </row>
     <row r="82" spans="1:3" ht="19">
       <c r="A82" s="23" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B82" s="24"/>
       <c r="C82" s="25">
@@ -17157,7 +17143,7 @@
     </row>
     <row r="83" spans="1:3" ht="19">
       <c r="A83" s="23" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B83" s="24"/>
       <c r="C83" s="25">
@@ -17166,7 +17152,7 @@
     </row>
     <row r="84" spans="1:3" ht="19">
       <c r="A84" s="23" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B84" s="24"/>
       <c r="C84" s="25">
@@ -17175,7 +17161,7 @@
     </row>
     <row r="85" spans="1:3" ht="19">
       <c r="A85" s="23" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B85" s="24"/>
       <c r="C85" s="25">
@@ -17184,7 +17170,7 @@
     </row>
     <row r="86" spans="1:3" ht="19">
       <c r="A86" s="23" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B86" s="24"/>
       <c r="C86" s="25">
@@ -17193,7 +17179,7 @@
     </row>
     <row r="87" spans="1:3" ht="19">
       <c r="A87" s="23" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B87" s="24"/>
       <c r="C87" s="25">
@@ -17202,7 +17188,7 @@
     </row>
     <row r="88" spans="1:3" ht="19">
       <c r="A88" s="23" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B88" s="24"/>
       <c r="C88" s="25">
@@ -17211,7 +17197,7 @@
     </row>
     <row r="89" spans="1:3" ht="19">
       <c r="A89" s="23" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B89" s="24"/>
       <c r="C89" s="25">
@@ -17220,7 +17206,7 @@
     </row>
     <row r="90" spans="1:3" ht="19">
       <c r="A90" s="23" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B90" s="24"/>
       <c r="C90" s="25">
@@ -17229,7 +17215,7 @@
     </row>
     <row r="91" spans="1:3" ht="19">
       <c r="A91" s="23" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B91" s="24"/>
       <c r="C91" s="25">
@@ -17238,7 +17224,7 @@
     </row>
     <row r="92" spans="1:3" ht="20">
       <c r="A92" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B92" s="19"/>
       <c r="C92" s="7">
@@ -17247,7 +17233,7 @@
     </row>
     <row r="93" spans="1:3" ht="20">
       <c r="A93" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B93" s="19"/>
       <c r="C93" s="7">
@@ -17256,7 +17242,7 @@
     </row>
     <row r="94" spans="1:3" ht="20">
       <c r="A94" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B94" s="19"/>
       <c r="C94" s="7">
@@ -17265,7 +17251,7 @@
     </row>
     <row r="95" spans="1:3" ht="20">
       <c r="A95" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B95" s="19"/>
       <c r="C95" s="7">
@@ -17274,7 +17260,7 @@
     </row>
     <row r="96" spans="1:3" ht="20">
       <c r="A96" s="16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B96" s="19"/>
       <c r="C96" s="7">
@@ -17283,7 +17269,7 @@
     </row>
     <row r="97" spans="1:3" ht="19">
       <c r="A97" s="16" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B97" s="19"/>
       <c r="C97" s="7">
@@ -17292,7 +17278,7 @@
     </row>
     <row r="98" spans="1:3" ht="20">
       <c r="A98" s="16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B98" s="19"/>
       <c r="C98" s="7">
@@ -17301,7 +17287,7 @@
     </row>
     <row r="99" spans="1:3" ht="20">
       <c r="A99" s="16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B99" s="19"/>
       <c r="C99" s="7">
@@ -17310,7 +17296,7 @@
     </row>
     <row r="100" spans="1:3" ht="20">
       <c r="A100" s="16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B100" s="19"/>
       <c r="C100" s="7">
@@ -17319,7 +17305,7 @@
     </row>
     <row r="101" spans="1:3" ht="20">
       <c r="A101" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B101" s="19"/>
       <c r="C101" s="7">
@@ -17328,7 +17314,7 @@
     </row>
     <row r="102" spans="1:3" ht="20">
       <c r="A102" s="16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B102" s="19"/>
       <c r="C102" s="7">
@@ -17337,7 +17323,7 @@
     </row>
     <row r="103" spans="1:3" ht="20">
       <c r="A103" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B103" s="19"/>
       <c r="C103" s="7">
@@ -17346,7 +17332,7 @@
     </row>
     <row r="104" spans="1:3" ht="20">
       <c r="A104" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B104" s="19"/>
       <c r="C104" s="7">

--- a/data/jk_cwshd_required_test.xlsx
+++ b/data/jk_cwshd_required_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C253F8-696D-E242-9440-F3DFE4F6660F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F083595B-843E-F345-B8A7-643518D92024}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="500" windowWidth="27220" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="500" windowWidth="27220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="credit_none" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="289">
   <si>
     <t>casename</t>
   </si>
@@ -79,12 +79,6 @@
     <t>授信申请-非必填项为空personalInfo.hasChildren</t>
   </si>
   <si>
-    <t>授信申请-必填项为空personalInfo.liveAddressProvince</t>
-  </si>
-  <si>
-    <t>授信申请-必填项为空personalInfo.liveAddressCity</t>
-  </si>
-  <si>
     <t>授信申请-非必填项为空personalInfo.personalEmail</t>
   </si>
   <si>
@@ -487,6 +481,211 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.workingYear</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.isLocalRigster</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.applicantClinicRelationship</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.isDoctor</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.isHighRiskArea</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
       <t>-非</t>
     </r>
     <r>
@@ -506,7 +705,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>personalInfo.liveDetailAddress</t>
+      <t>personalInfo.monthIncome</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -538,6 +737,457 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
+      <t>非必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.monthIncomeDetail</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.creditIsEmpty</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.creditTotalOverdueTimes</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.creditTotalOverdueDays</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.creditIsOverdue</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.isExistInCreditRepo</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.allCreditRepoQueryTimes</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.afterLoanCreditRepoQueryTimes</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.creditRepoForCreditApproveQueryTimes</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.creditRepoForLoanApprovedQueryTimes</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.creditRepoForCreditCardApprovedQueryTimes</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-非</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>必填项为空</t>
     </r>
     <r>
@@ -547,7 +1197,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>personalInfo.workingYear</t>
+      <t>contactInfo.spouseName</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -569,7 +1219,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>-</t>
+      <t>-非</t>
     </r>
     <r>
       <rPr>
@@ -588,7 +1238,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>personalInfo.position</t>
+      <t>contactInfo.spousePhone</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -610,7 +1260,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>-</t>
+      <t>-非</t>
     </r>
     <r>
       <rPr>
@@ -629,7 +1279,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>personalInfo.professionalTitle</t>
+      <t>contactInfo.spouseCardNum</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -651,7 +1301,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>-</t>
+      <t>-非</t>
     </r>
     <r>
       <rPr>
@@ -670,950 +1320,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>personalInfo.isLocalRigster</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>非必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>personalInfo.livingYear</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>personalInfo.applicantClinicRelationship</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>personalInfo.isDoctor</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>personalInfo.isHighRiskArea</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>personalInfo.identityCheckResult</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-非</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>personalInfo.monthIncome</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>非必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>personalInfo.monthIncomeDetail</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>非必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>personalInfo.creditIsEmpty</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>非必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>personalInfo.creditTotalOverdueTimes</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>非必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>personalInfo.creditTotalOverdueDays</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>非必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>personalInfo.creditIsOverdue</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>非必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>personalInfo.isExistInCreditRepo</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>非必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>personalInfo.allCreditRepoQueryTimes</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>非必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>personalInfo.afterLoanCreditRepoQueryTimes</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>非必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>personalInfo.creditRepoForCreditApproveQueryTimes</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>非必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>personalInfo.creditRepoForLoanApprovedQueryTimes</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>非必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>personalInfo.creditRepoForCreditCardApprovedQueryTimes</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-非</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>contactInfo.spouseName</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-非</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>contactInfo.spousePhone</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-非</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>contactInfo.spouseCardNum</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-非</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
       <t>contactInfo.firstContactCardNum</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-非</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>contactInfo.firstContactRelationship</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>授信申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-非</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填项为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>contactInfo.firstContactName</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -11034,6 +10741,252 @@
         <family val="1"/>
       </rPr>
       <t>personalInfo.fourVerifyResult</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-非</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.liveAddressProvince</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-非</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.liveAddressCity</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.liveDetailAddress</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>personalInfo.livingYear</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>contactInfo.firstContactRelationship</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授信申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必填项为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>contactInfo.firstContactName</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -12633,10 +12586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA402FE-2170-234C-BFCB-80F823858BAC}">
-  <dimension ref="A1:F373"/>
+  <dimension ref="A1:F370"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -12677,13 +12630,13 @@
         <v>4000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20">
@@ -12712,7 +12665,7 @@
     </row>
     <row r="5" spans="1:6" ht="20">
       <c r="A5" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="7">
@@ -12724,7 +12677,7 @@
     </row>
     <row r="6" spans="1:6" ht="19">
       <c r="A6" s="16" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="7">
@@ -12736,7 +12689,7 @@
     </row>
     <row r="7" spans="1:6" ht="19">
       <c r="A7" s="26" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="7">
@@ -12748,7 +12701,7 @@
     </row>
     <row r="8" spans="1:6" ht="19">
       <c r="A8" s="26" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="7">
@@ -12760,7 +12713,7 @@
     </row>
     <row r="9" spans="1:6" ht="19">
       <c r="A9" s="26" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="7">
@@ -12772,7 +12725,7 @@
     </row>
     <row r="10" spans="1:6" ht="20">
       <c r="A10" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="7">
@@ -12784,7 +12737,7 @@
     </row>
     <row r="11" spans="1:6" ht="20">
       <c r="A11" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="7">
@@ -12796,7 +12749,7 @@
     </row>
     <row r="12" spans="1:6" ht="19">
       <c r="A12" s="16" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="7">
@@ -12808,7 +12761,7 @@
     </row>
     <row r="13" spans="1:6" ht="19">
       <c r="A13" s="16" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="7">
@@ -12820,7 +12773,7 @@
     </row>
     <row r="14" spans="1:6" ht="20">
       <c r="A14" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="7">
@@ -12832,7 +12785,7 @@
     </row>
     <row r="15" spans="1:6" ht="20">
       <c r="A15" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="7">
@@ -12844,7 +12797,7 @@
     </row>
     <row r="16" spans="1:6" ht="20">
       <c r="A16" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="7">
@@ -12868,7 +12821,7 @@
     </row>
     <row r="18" spans="1:6" ht="20">
       <c r="A18" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="7">
@@ -12880,7 +12833,7 @@
     </row>
     <row r="19" spans="1:6" ht="20">
       <c r="A19" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="7">
@@ -12916,7 +12869,7 @@
     </row>
     <row r="22" spans="1:6" ht="20">
       <c r="A22" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="7">
@@ -12928,7 +12881,7 @@
     </row>
     <row r="23" spans="1:6" ht="20">
       <c r="A23" s="16" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="7">
@@ -12939,24 +12892,24 @@
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6" ht="20">
-      <c r="A24" s="6" t="s">
-        <v>13</v>
+      <c r="A24" s="16" t="s">
+        <v>283</v>
       </c>
       <c r="B24" s="19"/>
       <c r="C24" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="12"/>
       <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6" ht="20">
-      <c r="A25" s="6" t="s">
-        <v>14</v>
+      <c r="A25" s="16" t="s">
+        <v>284</v>
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="12"/>
@@ -12964,7 +12917,7 @@
     </row>
     <row r="26" spans="1:6" ht="20">
       <c r="A26" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="7">
@@ -12976,11 +12929,11 @@
     </row>
     <row r="27" spans="1:6" ht="20">
       <c r="A27" s="16" t="s">
-        <v>29</v>
+        <v>285</v>
       </c>
       <c r="B27" s="19"/>
       <c r="C27" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="12"/>
@@ -12988,7 +12941,7 @@
     </row>
     <row r="28" spans="1:6" ht="20">
       <c r="A28" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B28" s="19"/>
       <c r="C28" s="7">
@@ -13000,7 +12953,7 @@
     </row>
     <row r="29" spans="1:6" ht="20">
       <c r="A29" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B29" s="19"/>
       <c r="C29" s="7">
@@ -13012,7 +12965,7 @@
     </row>
     <row r="30" spans="1:6" ht="20">
       <c r="A30" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B30" s="19"/>
       <c r="C30" s="7">
@@ -13024,7 +12977,7 @@
     </row>
     <row r="31" spans="1:6" ht="20">
       <c r="A31" s="16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B31" s="19"/>
       <c r="C31" s="7">
@@ -13036,7 +12989,7 @@
     </row>
     <row r="32" spans="1:6" ht="20">
       <c r="A32" s="16" t="s">
-        <v>33</v>
+        <v>286</v>
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="7">
@@ -13048,7 +13001,7 @@
     </row>
     <row r="33" spans="1:6" ht="20">
       <c r="A33" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B33" s="19"/>
       <c r="C33" s="7">
@@ -13060,11 +13013,11 @@
     </row>
     <row r="34" spans="1:6" ht="20">
       <c r="A34" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B34" s="19"/>
       <c r="C34" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="12"/>
@@ -13072,7 +13025,7 @@
     </row>
     <row r="35" spans="1:6" ht="20">
       <c r="A35" s="16" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B35" s="19"/>
       <c r="C35" s="7">
@@ -13084,7 +13037,7 @@
     </row>
     <row r="36" spans="1:6" ht="20">
       <c r="A36" s="16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B36" s="19"/>
       <c r="C36" s="7">
@@ -13096,11 +13049,11 @@
     </row>
     <row r="37" spans="1:6" ht="20">
       <c r="A37" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B37" s="19"/>
       <c r="C37" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="12"/>
@@ -13108,11 +13061,11 @@
     </row>
     <row r="38" spans="1:6" ht="20">
       <c r="A38" s="16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B38" s="19"/>
       <c r="C38" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="12"/>
@@ -13120,11 +13073,11 @@
     </row>
     <row r="39" spans="1:6" ht="20">
       <c r="A39" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B39" s="19"/>
       <c r="C39" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="12"/>
@@ -13132,7 +13085,7 @@
     </row>
     <row r="40" spans="1:6" ht="20">
       <c r="A40" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B40" s="19"/>
       <c r="C40" s="7">
@@ -13144,7 +13097,7 @@
     </row>
     <row r="41" spans="1:6" ht="20">
       <c r="A41" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B41" s="19"/>
       <c r="C41" s="7">
@@ -13156,7 +13109,7 @@
     </row>
     <row r="42" spans="1:6" ht="20">
       <c r="A42" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="7">
@@ -13168,7 +13121,7 @@
     </row>
     <row r="43" spans="1:6" ht="20">
       <c r="A43" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B43" s="19"/>
       <c r="C43" s="7">
@@ -13180,7 +13133,7 @@
     </row>
     <row r="44" spans="1:6" ht="20">
       <c r="A44" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B44" s="19"/>
       <c r="C44" s="7">
@@ -13192,7 +13145,7 @@
     </row>
     <row r="45" spans="1:6" ht="20">
       <c r="A45" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B45" s="19"/>
       <c r="C45" s="7">
@@ -13204,7 +13157,7 @@
     </row>
     <row r="46" spans="1:6" ht="20">
       <c r="A46" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B46" s="19"/>
       <c r="C46" s="7">
@@ -13216,7 +13169,7 @@
     </row>
     <row r="47" spans="1:6" ht="20">
       <c r="A47" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B47" s="19"/>
       <c r="C47" s="7">
@@ -13228,7 +13181,7 @@
     </row>
     <row r="48" spans="1:6" ht="20">
       <c r="A48" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B48" s="19"/>
       <c r="C48" s="7">
@@ -13238,37 +13191,37 @@
       <c r="E48" s="12"/>
       <c r="F48" s="13"/>
     </row>
-    <row r="49" spans="1:6" ht="20">
+    <row r="49" spans="1:6" ht="19">
       <c r="A49" s="16" t="s">
-        <v>48</v>
+        <v>197</v>
       </c>
       <c r="B49" s="19"/>
       <c r="C49" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="12"/>
       <c r="F49" s="13"/>
     </row>
-    <row r="50" spans="1:6" ht="20">
+    <row r="50" spans="1:6" ht="19">
       <c r="A50" s="16" t="s">
-        <v>49</v>
+        <v>198</v>
       </c>
       <c r="B50" s="19"/>
       <c r="C50" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="12"/>
       <c r="F50" s="13"/>
     </row>
-    <row r="51" spans="1:6" ht="20">
+    <row r="51" spans="1:6" ht="19">
       <c r="A51" s="16" t="s">
-        <v>50</v>
+        <v>199</v>
       </c>
       <c r="B51" s="19"/>
       <c r="C51" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="12"/>
@@ -13276,7 +13229,7 @@
     </row>
     <row r="52" spans="1:6" ht="19">
       <c r="A52" s="16" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B52" s="19"/>
       <c r="C52" s="7">
@@ -13288,7 +13241,7 @@
     </row>
     <row r="53" spans="1:6" ht="19">
       <c r="A53" s="16" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B53" s="19"/>
       <c r="C53" s="7">
@@ -13300,7 +13253,7 @@
     </row>
     <row r="54" spans="1:6" ht="19">
       <c r="A54" s="16" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B54" s="19"/>
       <c r="C54" s="7">
@@ -13312,7 +13265,7 @@
     </row>
     <row r="55" spans="1:6" ht="19">
       <c r="A55" s="16" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B55" s="19"/>
       <c r="C55" s="7">
@@ -13324,7 +13277,7 @@
     </row>
     <row r="56" spans="1:6" ht="19">
       <c r="A56" s="16" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B56" s="19"/>
       <c r="C56" s="7">
@@ -13336,7 +13289,7 @@
     </row>
     <row r="57" spans="1:6" ht="19">
       <c r="A57" s="16" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B57" s="19"/>
       <c r="C57" s="7">
@@ -13348,7 +13301,7 @@
     </row>
     <row r="58" spans="1:6" ht="19">
       <c r="A58" s="16" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B58" s="19"/>
       <c r="C58" s="7">
@@ -13360,7 +13313,7 @@
     </row>
     <row r="59" spans="1:6" ht="19">
       <c r="A59" s="16" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B59" s="19"/>
       <c r="C59" s="7">
@@ -13372,7 +13325,7 @@
     </row>
     <row r="60" spans="1:6" ht="19">
       <c r="A60" s="16" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B60" s="19"/>
       <c r="C60" s="7">
@@ -13384,7 +13337,7 @@
     </row>
     <row r="61" spans="1:6" ht="19">
       <c r="A61" s="16" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B61" s="19"/>
       <c r="C61" s="7">
@@ -13394,37 +13347,37 @@
       <c r="E61" s="12"/>
       <c r="F61" s="13"/>
     </row>
-    <row r="62" spans="1:6" ht="19">
+    <row r="62" spans="1:6" ht="20">
       <c r="A62" s="16" t="s">
-        <v>216</v>
+        <v>44</v>
       </c>
       <c r="B62" s="19"/>
       <c r="C62" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="12"/>
       <c r="F62" s="13"/>
     </row>
-    <row r="63" spans="1:6" ht="19">
+    <row r="63" spans="1:6" ht="20">
       <c r="A63" s="16" t="s">
-        <v>217</v>
+        <v>45</v>
       </c>
       <c r="B63" s="19"/>
       <c r="C63" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="12"/>
       <c r="F63" s="13"/>
     </row>
-    <row r="64" spans="1:6" ht="19">
+    <row r="64" spans="1:6" ht="20">
       <c r="A64" s="16" t="s">
-        <v>218</v>
+        <v>46</v>
       </c>
       <c r="B64" s="19"/>
       <c r="C64" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="12"/>
@@ -13432,7 +13385,7 @@
     </row>
     <row r="65" spans="1:6" ht="20">
       <c r="A65" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B65" s="19"/>
       <c r="C65" s="7">
@@ -13444,11 +13397,11 @@
     </row>
     <row r="66" spans="1:6" ht="20">
       <c r="A66" s="16" t="s">
-        <v>52</v>
+        <v>287</v>
       </c>
       <c r="B66" s="19"/>
       <c r="C66" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="12"/>
@@ -13456,11 +13409,11 @@
     </row>
     <row r="67" spans="1:6" ht="20">
       <c r="A67" s="16" t="s">
-        <v>53</v>
+        <v>288</v>
       </c>
       <c r="B67" s="19"/>
       <c r="C67" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="12"/>
@@ -13468,7 +13421,7 @@
     </row>
     <row r="68" spans="1:6" ht="20">
       <c r="A68" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B68" s="19"/>
       <c r="C68" s="7">
@@ -13478,13 +13431,13 @@
       <c r="E68" s="12"/>
       <c r="F68" s="13"/>
     </row>
-    <row r="69" spans="1:6" ht="20">
+    <row r="69" spans="1:6" ht="19">
       <c r="A69" s="16" t="s">
-        <v>55</v>
+        <v>210</v>
       </c>
       <c r="B69" s="19"/>
       <c r="C69" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="12"/>
@@ -13492,11 +13445,11 @@
     </row>
     <row r="70" spans="1:6" ht="20">
       <c r="A70" s="16" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B70" s="19"/>
       <c r="C70" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="12"/>
@@ -13504,19 +13457,19 @@
     </row>
     <row r="71" spans="1:6" ht="20">
       <c r="A71" s="16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B71" s="19"/>
       <c r="C71" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="12"/>
       <c r="F71" s="13"/>
     </row>
-    <row r="72" spans="1:6" ht="19">
+    <row r="72" spans="1:6" ht="20">
       <c r="A72" s="16" t="s">
-        <v>219</v>
+        <v>52</v>
       </c>
       <c r="B72" s="19"/>
       <c r="C72" s="7">
@@ -13528,7 +13481,7 @@
     </row>
     <row r="73" spans="1:6" ht="20">
       <c r="A73" s="16" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B73" s="19"/>
       <c r="C73" s="7">
@@ -13540,11 +13493,11 @@
     </row>
     <row r="74" spans="1:6" ht="20">
       <c r="A74" s="16" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="B74" s="19"/>
       <c r="C74" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="12"/>
@@ -13552,7 +13505,7 @@
     </row>
     <row r="75" spans="1:6" ht="20">
       <c r="A75" s="16" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B75" s="19"/>
       <c r="C75" s="7">
@@ -13564,7 +13517,7 @@
     </row>
     <row r="76" spans="1:6" ht="20">
       <c r="A76" s="16" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B76" s="19"/>
       <c r="C76" s="7">
@@ -13576,11 +13529,11 @@
     </row>
     <row r="77" spans="1:6" ht="20">
       <c r="A77" s="16" t="s">
-        <v>176</v>
+        <v>56</v>
       </c>
       <c r="B77" s="19"/>
       <c r="C77" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="12"/>
@@ -13588,7 +13541,7 @@
     </row>
     <row r="78" spans="1:6" ht="20">
       <c r="A78" s="16" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B78" s="19"/>
       <c r="C78" s="7">
@@ -13600,7 +13553,7 @@
     </row>
     <row r="79" spans="1:6" ht="20">
       <c r="A79" s="16" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B79" s="19"/>
       <c r="C79" s="7">
@@ -13612,7 +13565,7 @@
     </row>
     <row r="80" spans="1:6" ht="20">
       <c r="A80" s="16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B80" s="19"/>
       <c r="C80" s="7">
@@ -13624,7 +13577,7 @@
     </row>
     <row r="81" spans="1:6" ht="20">
       <c r="A81" s="16" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B81" s="19"/>
       <c r="C81" s="7">
@@ -13636,7 +13589,7 @@
     </row>
     <row r="82" spans="1:6" ht="20">
       <c r="A82" s="16" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B82" s="19"/>
       <c r="C82" s="7">
@@ -13648,7 +13601,7 @@
     </row>
     <row r="83" spans="1:6" ht="20">
       <c r="A83" s="16" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B83" s="19"/>
       <c r="C83" s="7">
@@ -13660,11 +13613,11 @@
     </row>
     <row r="84" spans="1:6" ht="20">
       <c r="A84" s="16" t="s">
-        <v>69</v>
+        <v>168</v>
       </c>
       <c r="B84" s="19"/>
       <c r="C84" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="12"/>
@@ -13672,11 +13625,11 @@
     </row>
     <row r="85" spans="1:6" ht="20">
       <c r="A85" s="16" t="s">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="B85" s="19"/>
       <c r="C85" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="12"/>
@@ -13684,11 +13637,11 @@
     </row>
     <row r="86" spans="1:6" ht="20">
       <c r="A86" s="16" t="s">
-        <v>71</v>
+        <v>170</v>
       </c>
       <c r="B86" s="19"/>
       <c r="C86" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="12"/>
@@ -13696,11 +13649,11 @@
     </row>
     <row r="87" spans="1:6" ht="20">
       <c r="A87" s="16" t="s">
-        <v>177</v>
+        <v>63</v>
       </c>
       <c r="B87" s="19"/>
       <c r="C87" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="12"/>
@@ -13708,11 +13661,11 @@
     </row>
     <row r="88" spans="1:6" ht="20">
       <c r="A88" s="16" t="s">
-        <v>178</v>
+        <v>64</v>
       </c>
       <c r="B88" s="19"/>
       <c r="C88" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="12"/>
@@ -13720,11 +13673,11 @@
     </row>
     <row r="89" spans="1:6" ht="20">
       <c r="A89" s="16" t="s">
-        <v>179</v>
+        <v>65</v>
       </c>
       <c r="B89" s="19"/>
       <c r="C89" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="12"/>
@@ -13732,7 +13685,7 @@
     </row>
     <row r="90" spans="1:6" ht="20">
       <c r="A90" s="16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B90" s="19"/>
       <c r="C90" s="7">
@@ -13744,7 +13697,7 @@
     </row>
     <row r="91" spans="1:6" ht="20">
       <c r="A91" s="16" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B91" s="19"/>
       <c r="C91" s="7">
@@ -13756,7 +13709,7 @@
     </row>
     <row r="92" spans="1:6" ht="20">
       <c r="A92" s="16" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B92" s="19"/>
       <c r="C92" s="7">
@@ -13768,11 +13721,11 @@
     </row>
     <row r="93" spans="1:6" ht="20">
       <c r="A93" s="16" t="s">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="B93" s="19"/>
       <c r="C93" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="12"/>
@@ -13780,11 +13733,11 @@
     </row>
     <row r="94" spans="1:6" ht="20">
       <c r="A94" s="16" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B94" s="19"/>
       <c r="C94" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="12"/>
@@ -13792,11 +13745,11 @@
     </row>
     <row r="95" spans="1:6" ht="20">
       <c r="A95" s="16" t="s">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="B95" s="19"/>
       <c r="C95" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="12"/>
@@ -13804,11 +13757,11 @@
     </row>
     <row r="96" spans="1:6" ht="20">
       <c r="A96" s="16" t="s">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="B96" s="19"/>
       <c r="C96" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="12"/>
@@ -13816,11 +13769,11 @@
     </row>
     <row r="97" spans="1:6" ht="20">
       <c r="A97" s="16" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B97" s="19"/>
       <c r="C97" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="12"/>
@@ -13828,11 +13781,11 @@
     </row>
     <row r="98" spans="1:6" ht="20">
       <c r="A98" s="16" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="B98" s="19"/>
       <c r="C98" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="12"/>
@@ -13840,7 +13793,7 @@
     </row>
     <row r="99" spans="1:6" ht="20">
       <c r="A99" s="16" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B99" s="19"/>
       <c r="C99" s="7">
@@ -13852,7 +13805,7 @@
     </row>
     <row r="100" spans="1:6" ht="20">
       <c r="A100" s="16" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B100" s="19"/>
       <c r="C100" s="7">
@@ -13864,11 +13817,11 @@
     </row>
     <row r="101" spans="1:6" ht="20">
       <c r="A101" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B101" s="19"/>
       <c r="C101" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D101" s="11"/>
       <c r="E101" s="12"/>
@@ -13876,7 +13829,7 @@
     </row>
     <row r="102" spans="1:6" ht="20">
       <c r="A102" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B102" s="19"/>
       <c r="C102" s="7">
@@ -13888,11 +13841,11 @@
     </row>
     <row r="103" spans="1:6" ht="20">
       <c r="A103" s="16" t="s">
-        <v>83</v>
+        <v>173</v>
       </c>
       <c r="B103" s="19"/>
       <c r="C103" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="12"/>
@@ -13900,11 +13853,11 @@
     </row>
     <row r="104" spans="1:6" ht="20">
       <c r="A104" s="16" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B104" s="19"/>
       <c r="C104" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="12"/>
@@ -13912,7 +13865,7 @@
     </row>
     <row r="105" spans="1:6" ht="20">
       <c r="A105" s="16" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B105" s="19"/>
       <c r="C105" s="7">
@@ -13924,11 +13877,11 @@
     </row>
     <row r="106" spans="1:6" ht="20">
       <c r="A106" s="16" t="s">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="B106" s="19"/>
       <c r="C106" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="12"/>
@@ -13936,7 +13889,7 @@
     </row>
     <row r="107" spans="1:6" ht="20">
       <c r="A107" s="16" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B107" s="19"/>
       <c r="C107" s="7">
@@ -13948,7 +13901,7 @@
     </row>
     <row r="108" spans="1:6" ht="20">
       <c r="A108" s="16" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B108" s="19"/>
       <c r="C108" s="7">
@@ -13960,7 +13913,7 @@
     </row>
     <row r="109" spans="1:6" ht="20">
       <c r="A109" s="16" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B109" s="19"/>
       <c r="C109" s="7">
@@ -13972,7 +13925,7 @@
     </row>
     <row r="110" spans="1:6" ht="20">
       <c r="A110" s="16" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B110" s="19"/>
       <c r="C110" s="7">
@@ -13984,7 +13937,7 @@
     </row>
     <row r="111" spans="1:6" ht="20">
       <c r="A111" s="16" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B111" s="19"/>
       <c r="C111" s="7">
@@ -13996,7 +13949,7 @@
     </row>
     <row r="112" spans="1:6" ht="20">
       <c r="A112" s="16" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B112" s="19"/>
       <c r="C112" s="7">
@@ -14008,11 +13961,11 @@
     </row>
     <row r="113" spans="1:6" ht="20">
       <c r="A113" s="16" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B113" s="19"/>
       <c r="C113" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D113" s="11"/>
       <c r="E113" s="12"/>
@@ -14020,7 +13973,7 @@
     </row>
     <row r="114" spans="1:6" ht="20">
       <c r="A114" s="16" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B114" s="19"/>
       <c r="C114" s="7">
@@ -14032,11 +13985,11 @@
     </row>
     <row r="115" spans="1:6" ht="20">
       <c r="A115" s="16" t="s">
-        <v>94</v>
+        <v>174</v>
       </c>
       <c r="B115" s="19"/>
       <c r="C115" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D115" s="11"/>
       <c r="E115" s="12"/>
@@ -14044,7 +13997,7 @@
     </row>
     <row r="116" spans="1:6" ht="20">
       <c r="A116" s="16" t="s">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="B116" s="19"/>
       <c r="C116" s="7">
@@ -14056,11 +14009,11 @@
     </row>
     <row r="117" spans="1:6" ht="20">
       <c r="A117" s="16" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B117" s="19"/>
       <c r="C117" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D117" s="11"/>
       <c r="E117" s="12"/>
@@ -14068,11 +14021,11 @@
     </row>
     <row r="118" spans="1:6" ht="20">
       <c r="A118" s="16" t="s">
-        <v>183</v>
+        <v>89</v>
       </c>
       <c r="B118" s="19"/>
       <c r="C118" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="12"/>
@@ -14080,11 +14033,11 @@
     </row>
     <row r="119" spans="1:6" ht="20">
       <c r="A119" s="16" t="s">
-        <v>184</v>
+        <v>90</v>
       </c>
       <c r="B119" s="19"/>
       <c r="C119" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D119" s="11"/>
       <c r="E119" s="12"/>
@@ -14092,11 +14045,11 @@
     </row>
     <row r="120" spans="1:6" ht="20">
       <c r="A120" s="16" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B120" s="19"/>
       <c r="C120" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D120" s="11"/>
       <c r="E120" s="12"/>
@@ -14104,7 +14057,7 @@
     </row>
     <row r="121" spans="1:6" ht="20">
       <c r="A121" s="16" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B121" s="19"/>
       <c r="C121" s="7">
@@ -14116,11 +14069,11 @@
     </row>
     <row r="122" spans="1:6" ht="20">
       <c r="A122" s="16" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B122" s="19"/>
       <c r="C122" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D122" s="11"/>
       <c r="E122" s="12"/>
@@ -14128,7 +14081,7 @@
     </row>
     <row r="123" spans="1:6" ht="20">
       <c r="A123" s="16" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B123" s="19"/>
       <c r="C123" s="7">
@@ -14140,7 +14093,7 @@
     </row>
     <row r="124" spans="1:6" ht="20">
       <c r="A124" s="16" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B124" s="19"/>
       <c r="C124" s="7">
@@ -14152,11 +14105,11 @@
     </row>
     <row r="125" spans="1:6" ht="20">
       <c r="A125" s="16" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B125" s="19"/>
       <c r="C125" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D125" s="11"/>
       <c r="E125" s="12"/>
@@ -14164,7 +14117,7 @@
     </row>
     <row r="126" spans="1:6" ht="20">
       <c r="A126" s="16" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B126" s="19"/>
       <c r="C126" s="7">
@@ -14176,7 +14129,7 @@
     </row>
     <row r="127" spans="1:6" ht="20">
       <c r="A127" s="16" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B127" s="19"/>
       <c r="C127" s="7">
@@ -14188,7 +14141,7 @@
     </row>
     <row r="128" spans="1:6" ht="20">
       <c r="A128" s="16" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B128" s="19"/>
       <c r="C128" s="7">
@@ -14200,7 +14153,7 @@
     </row>
     <row r="129" spans="1:6" ht="20">
       <c r="A129" s="16" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B129" s="19"/>
       <c r="C129" s="7">
@@ -14212,7 +14165,7 @@
     </row>
     <row r="130" spans="1:6" ht="20">
       <c r="A130" s="16" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B130" s="19"/>
       <c r="C130" s="7">
@@ -14224,7 +14177,7 @@
     </row>
     <row r="131" spans="1:6" ht="20">
       <c r="A131" s="16" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B131" s="19"/>
       <c r="C131" s="7">
@@ -14236,7 +14189,7 @@
     </row>
     <row r="132" spans="1:6" ht="20">
       <c r="A132" s="16" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B132" s="19"/>
       <c r="C132" s="7">
@@ -14248,7 +14201,7 @@
     </row>
     <row r="133" spans="1:6" ht="20">
       <c r="A133" s="16" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B133" s="19"/>
       <c r="C133" s="7">
@@ -14260,7 +14213,7 @@
     </row>
     <row r="134" spans="1:6" ht="20">
       <c r="A134" s="16" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B134" s="19"/>
       <c r="C134" s="7">
@@ -14270,9 +14223,9 @@
       <c r="E134" s="12"/>
       <c r="F134" s="13"/>
     </row>
-    <row r="135" spans="1:6" ht="20">
+    <row r="135" spans="1:6" ht="19">
       <c r="A135" s="16" t="s">
-        <v>112</v>
+        <v>211</v>
       </c>
       <c r="B135" s="19"/>
       <c r="C135" s="7">
@@ -14282,9 +14235,9 @@
       <c r="E135" s="12"/>
       <c r="F135" s="13"/>
     </row>
-    <row r="136" spans="1:6" ht="20">
+    <row r="136" spans="1:6" ht="19">
       <c r="A136" s="16" t="s">
-        <v>113</v>
+        <v>212</v>
       </c>
       <c r="B136" s="19"/>
       <c r="C136" s="7">
@@ -14294,9 +14247,9 @@
       <c r="E136" s="12"/>
       <c r="F136" s="13"/>
     </row>
-    <row r="137" spans="1:6" ht="20">
+    <row r="137" spans="1:6" ht="19">
       <c r="A137" s="16" t="s">
-        <v>124</v>
+        <v>213</v>
       </c>
       <c r="B137" s="19"/>
       <c r="C137" s="7">
@@ -14308,7 +14261,7 @@
     </row>
     <row r="138" spans="1:6" ht="19">
       <c r="A138" s="16" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B138" s="19"/>
       <c r="C138" s="7">
@@ -14320,7 +14273,7 @@
     </row>
     <row r="139" spans="1:6" ht="19">
       <c r="A139" s="16" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B139" s="19"/>
       <c r="C139" s="7">
@@ -14332,7 +14285,7 @@
     </row>
     <row r="140" spans="1:6" ht="19">
       <c r="A140" s="16" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B140" s="19"/>
       <c r="C140" s="7">
@@ -14344,7 +14297,7 @@
     </row>
     <row r="141" spans="1:6" ht="19">
       <c r="A141" s="16" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B141" s="19"/>
       <c r="C141" s="7">
@@ -14356,7 +14309,7 @@
     </row>
     <row r="142" spans="1:6" ht="19">
       <c r="A142" s="16" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B142" s="19"/>
       <c r="C142" s="7">
@@ -14368,7 +14321,7 @@
     </row>
     <row r="143" spans="1:6" ht="19">
       <c r="A143" s="16" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B143" s="19"/>
       <c r="C143" s="7">
@@ -14380,7 +14333,7 @@
     </row>
     <row r="144" spans="1:6" ht="19">
       <c r="A144" s="16" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B144" s="19"/>
       <c r="C144" s="7">
@@ -14392,7 +14345,7 @@
     </row>
     <row r="145" spans="1:6" ht="19">
       <c r="A145" s="16" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B145" s="19"/>
       <c r="C145" s="7">
@@ -14404,7 +14357,7 @@
     </row>
     <row r="146" spans="1:6" ht="19">
       <c r="A146" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B146" s="19"/>
       <c r="C146" s="7">
@@ -14416,7 +14369,7 @@
     </row>
     <row r="147" spans="1:6" ht="19">
       <c r="A147" s="16" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B147" s="19"/>
       <c r="C147" s="7">
@@ -14428,7 +14381,7 @@
     </row>
     <row r="148" spans="1:6" ht="19">
       <c r="A148" s="16" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B148" s="19"/>
       <c r="C148" s="7">
@@ -14440,7 +14393,7 @@
     </row>
     <row r="149" spans="1:6" ht="19">
       <c r="A149" s="16" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B149" s="19"/>
       <c r="C149" s="7">
@@ -14452,7 +14405,7 @@
     </row>
     <row r="150" spans="1:6" ht="19">
       <c r="A150" s="16" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B150" s="19"/>
       <c r="C150" s="7">
@@ -14464,7 +14417,7 @@
     </row>
     <row r="151" spans="1:6" ht="19">
       <c r="A151" s="16" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B151" s="19"/>
       <c r="C151" s="7">
@@ -14476,7 +14429,7 @@
     </row>
     <row r="152" spans="1:6" ht="19">
       <c r="A152" s="16" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B152" s="19"/>
       <c r="C152" s="7">
@@ -14488,7 +14441,7 @@
     </row>
     <row r="153" spans="1:6" ht="19">
       <c r="A153" s="16" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B153" s="19"/>
       <c r="C153" s="7">
@@ -14498,9 +14451,9 @@
       <c r="E153" s="12"/>
       <c r="F153" s="13"/>
     </row>
-    <row r="154" spans="1:6" ht="19">
+    <row r="154" spans="1:6" ht="20">
       <c r="A154" s="16" t="s">
-        <v>236</v>
+        <v>49</v>
       </c>
       <c r="B154" s="19"/>
       <c r="C154" s="7">
@@ -14510,9 +14463,9 @@
       <c r="E154" s="12"/>
       <c r="F154" s="13"/>
     </row>
-    <row r="155" spans="1:6" ht="19">
+    <row r="155" spans="1:6" ht="20">
       <c r="A155" s="16" t="s">
-        <v>237</v>
+        <v>105</v>
       </c>
       <c r="B155" s="19"/>
       <c r="C155" s="7">
@@ -14522,21 +14475,21 @@
       <c r="E155" s="12"/>
       <c r="F155" s="13"/>
     </row>
-    <row r="156" spans="1:6" ht="19">
-      <c r="A156" s="16" t="s">
-        <v>238</v>
+    <row r="156" spans="1:6" ht="20">
+      <c r="A156" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B156" s="19"/>
       <c r="C156" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D156" s="11"/>
       <c r="E156" s="12"/>
       <c r="F156" s="13"/>
     </row>
     <row r="157" spans="1:6" ht="20">
-      <c r="A157" s="16" t="s">
-        <v>58</v>
+      <c r="A157" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="B157" s="19"/>
       <c r="C157" s="7">
@@ -14547,20 +14500,20 @@
       <c r="F157" s="13"/>
     </row>
     <row r="158" spans="1:6" ht="20">
-      <c r="A158" s="16" t="s">
-        <v>114</v>
+      <c r="A158" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B158" s="19"/>
       <c r="C158" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D158" s="11"/>
       <c r="E158" s="12"/>
       <c r="F158" s="13"/>
     </row>
     <row r="159" spans="1:6" ht="20">
-      <c r="A159" s="6" t="s">
-        <v>16</v>
+      <c r="A159" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="B159" s="19"/>
       <c r="C159" s="7">
@@ -14571,8 +14524,8 @@
       <c r="F159" s="13"/>
     </row>
     <row r="160" spans="1:6" ht="20">
-      <c r="A160" s="6" t="s">
-        <v>17</v>
+      <c r="A160" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="B160" s="19"/>
       <c r="C160" s="7">
@@ -14583,12 +14536,12 @@
       <c r="F160" s="13"/>
     </row>
     <row r="161" spans="1:6" ht="20">
-      <c r="A161" s="6" t="s">
-        <v>18</v>
+      <c r="A161" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="B161" s="19"/>
       <c r="C161" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D161" s="11"/>
       <c r="E161" s="12"/>
@@ -14596,11 +14549,11 @@
     </row>
     <row r="162" spans="1:6" ht="20">
       <c r="A162" s="16" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B162" s="19"/>
       <c r="C162" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D162" s="11"/>
       <c r="E162" s="12"/>
@@ -14608,7 +14561,7 @@
     </row>
     <row r="163" spans="1:6" ht="20">
       <c r="A163" s="16" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B163" s="19"/>
       <c r="C163" s="7">
@@ -14620,7 +14573,7 @@
     </row>
     <row r="164" spans="1:6" ht="20">
       <c r="A164" s="16" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B164" s="19"/>
       <c r="C164" s="7">
@@ -14632,11 +14585,11 @@
     </row>
     <row r="165" spans="1:6" ht="20">
       <c r="A165" s="16" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B165" s="19"/>
       <c r="C165" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D165" s="11"/>
       <c r="E165" s="12"/>
@@ -14644,7 +14597,7 @@
     </row>
     <row r="166" spans="1:6" ht="20">
       <c r="A166" s="16" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B166" s="19"/>
       <c r="C166" s="7">
@@ -14656,7 +14609,7 @@
     </row>
     <row r="167" spans="1:6" ht="20">
       <c r="A167" s="16" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B167" s="19"/>
       <c r="C167" s="7">
@@ -14668,11 +14621,11 @@
     </row>
     <row r="168" spans="1:6" ht="20">
       <c r="A168" s="16" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="B168" s="19"/>
       <c r="C168" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D168" s="11"/>
       <c r="E168" s="12"/>
@@ -14680,7 +14633,7 @@
     </row>
     <row r="169" spans="1:6" ht="20">
       <c r="A169" s="16" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="B169" s="19"/>
       <c r="C169" s="7">
@@ -14692,7 +14645,7 @@
     </row>
     <row r="170" spans="1:6" ht="20">
       <c r="A170" s="16" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="B170" s="19"/>
       <c r="C170" s="7">
@@ -14704,7 +14657,7 @@
     </row>
     <row r="171" spans="1:6" ht="20">
       <c r="A171" s="16" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B171" s="19"/>
       <c r="C171" s="7">
@@ -14716,11 +14669,11 @@
     </row>
     <row r="172" spans="1:6" ht="20">
       <c r="A172" s="16" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B172" s="19"/>
       <c r="C172" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D172" s="11"/>
       <c r="E172" s="12"/>
@@ -14728,7 +14681,7 @@
     </row>
     <row r="173" spans="1:6" ht="20">
       <c r="A173" s="16" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B173" s="19"/>
       <c r="C173" s="7">
@@ -14738,38 +14691,26 @@
       <c r="E173" s="12"/>
       <c r="F173" s="13"/>
     </row>
-    <row r="174" spans="1:6" ht="20">
-      <c r="A174" s="16" t="s">
-        <v>188</v>
-      </c>
+    <row r="174" spans="1:6" ht="19">
+      <c r="A174" s="6"/>
       <c r="B174" s="19"/>
-      <c r="C174" s="7">
-        <v>4000</v>
-      </c>
+      <c r="C174" s="7"/>
       <c r="D174" s="11"/>
       <c r="E174" s="12"/>
       <c r="F174" s="13"/>
     </row>
-    <row r="175" spans="1:6" ht="20">
-      <c r="A175" s="16" t="s">
-        <v>189</v>
-      </c>
+    <row r="175" spans="1:6" ht="19">
+      <c r="A175" s="6"/>
       <c r="B175" s="19"/>
-      <c r="C175" s="7">
-        <v>2000</v>
-      </c>
+      <c r="C175" s="7"/>
       <c r="D175" s="11"/>
       <c r="E175" s="12"/>
       <c r="F175" s="13"/>
     </row>
-    <row r="176" spans="1:6" ht="20">
-      <c r="A176" s="16" t="s">
-        <v>190</v>
-      </c>
+    <row r="176" spans="1:6" ht="19">
+      <c r="A176" s="6"/>
       <c r="B176" s="19"/>
-      <c r="C176" s="7">
-        <v>4000</v>
-      </c>
+      <c r="C176" s="7"/>
       <c r="D176" s="11"/>
       <c r="E176" s="12"/>
       <c r="F176" s="13"/>
@@ -14855,8 +14796,8 @@
       <c r="F186" s="13"/>
     </row>
     <row r="187" spans="1:6" ht="19">
-      <c r="A187" s="6"/>
-      <c r="B187" s="19"/>
+      <c r="A187" s="16"/>
+      <c r="B187" s="20"/>
       <c r="C187" s="7"/>
       <c r="D187" s="11"/>
       <c r="E187" s="12"/>
@@ -14879,8 +14820,8 @@
       <c r="F189" s="13"/>
     </row>
     <row r="190" spans="1:6" ht="19">
-      <c r="A190" s="16"/>
-      <c r="B190" s="20"/>
+      <c r="A190" s="6"/>
+      <c r="B190" s="19"/>
       <c r="C190" s="7"/>
       <c r="D190" s="11"/>
       <c r="E190" s="12"/>
@@ -16295,25 +16236,25 @@
       <c r="F366" s="13"/>
     </row>
     <row r="367" spans="1:6" ht="19">
-      <c r="A367" s="6"/>
-      <c r="B367" s="19"/>
-      <c r="C367" s="7"/>
+      <c r="A367" s="14"/>
+      <c r="B367" s="21"/>
+      <c r="C367" s="15"/>
       <c r="D367" s="11"/>
       <c r="E367" s="12"/>
       <c r="F367" s="13"/>
     </row>
     <row r="368" spans="1:6" ht="19">
-      <c r="A368" s="6"/>
-      <c r="B368" s="19"/>
-      <c r="C368" s="7"/>
+      <c r="A368" s="14"/>
+      <c r="B368" s="21"/>
+      <c r="C368" s="15"/>
       <c r="D368" s="11"/>
       <c r="E368" s="12"/>
       <c r="F368" s="13"/>
     </row>
     <row r="369" spans="1:6" ht="19">
-      <c r="A369" s="6"/>
-      <c r="B369" s="19"/>
-      <c r="C369" s="7"/>
+      <c r="A369" s="14"/>
+      <c r="B369" s="21"/>
+      <c r="C369" s="15"/>
       <c r="D369" s="11"/>
       <c r="E369" s="12"/>
       <c r="F369" s="13"/>
@@ -16325,30 +16266,6 @@
       <c r="D370" s="11"/>
       <c r="E370" s="12"/>
       <c r="F370" s="13"/>
-    </row>
-    <row r="371" spans="1:6" ht="19">
-      <c r="A371" s="14"/>
-      <c r="B371" s="21"/>
-      <c r="C371" s="15"/>
-      <c r="D371" s="11"/>
-      <c r="E371" s="12"/>
-      <c r="F371" s="13"/>
-    </row>
-    <row r="372" spans="1:6" ht="19">
-      <c r="A372" s="14"/>
-      <c r="B372" s="21"/>
-      <c r="C372" s="15"/>
-      <c r="D372" s="11"/>
-      <c r="E372" s="12"/>
-      <c r="F372" s="13"/>
-    </row>
-    <row r="373" spans="1:6" ht="19">
-      <c r="A373" s="14"/>
-      <c r="B373" s="21"/>
-      <c r="C373" s="15"/>
-      <c r="D373" s="11"/>
-      <c r="E373" s="12"/>
-      <c r="F373" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -16360,7 +16277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DA53EC-1037-824F-AE67-3CD7020CE1C6}">
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
@@ -16395,25 +16312,25 @@
     </row>
     <row r="2" spans="1:6" ht="409.6">
       <c r="A2" s="22" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="3">
         <v>4000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19">
       <c r="A3" s="22" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="3">
@@ -16422,7 +16339,7 @@
     </row>
     <row r="4" spans="1:6" ht="20">
       <c r="A4" s="22" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="3">
@@ -16431,7 +16348,7 @@
     </row>
     <row r="5" spans="1:6" ht="20">
       <c r="A5" s="22" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="3">
@@ -16440,7 +16357,7 @@
     </row>
     <row r="6" spans="1:6" ht="20">
       <c r="A6" s="22" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="3">
@@ -16449,7 +16366,7 @@
     </row>
     <row r="7" spans="1:6" ht="20">
       <c r="A7" s="22" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="3">
@@ -16458,7 +16375,7 @@
     </row>
     <row r="8" spans="1:6" ht="20">
       <c r="A8" s="22" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="3">
@@ -16467,7 +16384,7 @@
     </row>
     <row r="9" spans="1:6" ht="20">
       <c r="A9" s="22" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="3">
@@ -16476,7 +16393,7 @@
     </row>
     <row r="10" spans="1:6" ht="19">
       <c r="A10" s="22" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="3">
@@ -16485,10 +16402,10 @@
     </row>
     <row r="11" spans="1:6" ht="20">
       <c r="A11" s="22" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C11" s="3">
         <v>4000</v>
@@ -16496,7 +16413,7 @@
     </row>
     <row r="12" spans="1:6" ht="19">
       <c r="A12" s="22" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="3">
@@ -16505,7 +16422,7 @@
     </row>
     <row r="13" spans="1:6" ht="19">
       <c r="A13" s="22" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="3">
@@ -16514,7 +16431,7 @@
     </row>
     <row r="14" spans="1:6" ht="19">
       <c r="A14" s="22" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="3">
@@ -16523,7 +16440,7 @@
     </row>
     <row r="15" spans="1:6" ht="19">
       <c r="A15" s="22" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="3">
@@ -16532,7 +16449,7 @@
     </row>
     <row r="16" spans="1:6" ht="19">
       <c r="A16" s="22" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="3">
@@ -16541,10 +16458,10 @@
     </row>
     <row r="17" spans="1:3" ht="20">
       <c r="A17" s="22" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C17" s="3">
         <v>4000</v>
@@ -16552,7 +16469,7 @@
     </row>
     <row r="18" spans="1:3" ht="20">
       <c r="A18" s="22" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="3">
@@ -16561,7 +16478,7 @@
     </row>
     <row r="19" spans="1:3" ht="20">
       <c r="A19" s="22" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="3">
@@ -16570,7 +16487,7 @@
     </row>
     <row r="20" spans="1:3" ht="20">
       <c r="A20" s="22" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="3">
@@ -16579,7 +16496,7 @@
     </row>
     <row r="21" spans="1:3" ht="20">
       <c r="A21" s="22" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="3">
@@ -16588,7 +16505,7 @@
     </row>
     <row r="22" spans="1:3" ht="20">
       <c r="A22" s="22" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="3">
@@ -16597,7 +16514,7 @@
     </row>
     <row r="23" spans="1:3" ht="20">
       <c r="A23" s="22" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="3">
@@ -16606,7 +16523,7 @@
     </row>
     <row r="24" spans="1:3" ht="20">
       <c r="A24" s="22" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="3">
@@ -16615,7 +16532,7 @@
     </row>
     <row r="25" spans="1:3" ht="20">
       <c r="A25" s="22" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="3">
@@ -16624,7 +16541,7 @@
     </row>
     <row r="26" spans="1:3" ht="20">
       <c r="A26" s="22" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="3">
@@ -16633,7 +16550,7 @@
     </row>
     <row r="27" spans="1:3" ht="20">
       <c r="A27" s="22" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="3">
@@ -16642,10 +16559,10 @@
     </row>
     <row r="28" spans="1:3" ht="20">
       <c r="A28" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C28" s="3">
         <v>4000</v>
@@ -16653,7 +16570,7 @@
     </row>
     <row r="29" spans="1:3" ht="19">
       <c r="A29" s="22" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="3">
@@ -16662,7 +16579,7 @@
     </row>
     <row r="30" spans="1:3" ht="19">
       <c r="A30" s="22" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="3">
@@ -16671,7 +16588,7 @@
     </row>
     <row r="31" spans="1:3" ht="19">
       <c r="A31" s="22" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="3">
@@ -16680,7 +16597,7 @@
     </row>
     <row r="32" spans="1:3" ht="19">
       <c r="A32" s="22" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B32" s="18"/>
       <c r="C32" s="3">
@@ -16689,7 +16606,7 @@
     </row>
     <row r="33" spans="1:3" ht="19">
       <c r="A33" s="22" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B33" s="18"/>
       <c r="C33" s="3">
@@ -16698,10 +16615,10 @@
     </row>
     <row r="34" spans="1:3" ht="20">
       <c r="A34" s="22" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C34" s="3">
         <v>4000</v>
@@ -16709,10 +16626,10 @@
     </row>
     <row r="35" spans="1:3" ht="20">
       <c r="A35" s="22" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C35" s="3">
         <v>4000</v>
@@ -16720,7 +16637,7 @@
     </row>
     <row r="36" spans="1:3" ht="20">
       <c r="A36" s="22" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B36" s="18"/>
       <c r="C36" s="3">
@@ -16729,7 +16646,7 @@
     </row>
     <row r="37" spans="1:3" ht="20">
       <c r="A37" s="22" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B37" s="18"/>
       <c r="C37" s="3">
@@ -16738,7 +16655,7 @@
     </row>
     <row r="38" spans="1:3" ht="20">
       <c r="A38" s="22" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B38" s="18"/>
       <c r="C38" s="3">
@@ -16747,7 +16664,7 @@
     </row>
     <row r="39" spans="1:3" ht="20">
       <c r="A39" s="22" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B39" s="18"/>
       <c r="C39" s="3">
@@ -16756,7 +16673,7 @@
     </row>
     <row r="40" spans="1:3" ht="20">
       <c r="A40" s="22" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B40" s="18"/>
       <c r="C40" s="3">
@@ -16765,7 +16682,7 @@
     </row>
     <row r="41" spans="1:3" ht="20">
       <c r="A41" s="22" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B41" s="18"/>
       <c r="C41" s="3">
@@ -16774,7 +16691,7 @@
     </row>
     <row r="42" spans="1:3" ht="20">
       <c r="A42" s="22" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="3">
@@ -16783,7 +16700,7 @@
     </row>
     <row r="43" spans="1:3" ht="20">
       <c r="A43" s="22" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B43" s="18"/>
       <c r="C43" s="3">
@@ -16792,7 +16709,7 @@
     </row>
     <row r="44" spans="1:3" ht="20">
       <c r="A44" s="22" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="3">
@@ -16801,7 +16718,7 @@
     </row>
     <row r="45" spans="1:3" ht="20">
       <c r="A45" s="22" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B45" s="18"/>
       <c r="C45" s="3">
@@ -16810,7 +16727,7 @@
     </row>
     <row r="46" spans="1:3" ht="20">
       <c r="A46" s="22" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B46" s="18"/>
       <c r="C46" s="3">
@@ -16819,7 +16736,7 @@
     </row>
     <row r="47" spans="1:3" ht="19">
       <c r="A47" s="22" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B47" s="18"/>
       <c r="C47" s="3">
@@ -16828,7 +16745,7 @@
     </row>
     <row r="48" spans="1:3" ht="19">
       <c r="A48" s="22" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B48" s="18"/>
       <c r="C48" s="3">
@@ -16837,7 +16754,7 @@
     </row>
     <row r="49" spans="1:3" ht="20">
       <c r="A49" s="22" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B49" s="18"/>
       <c r="C49" s="3">
@@ -16846,7 +16763,7 @@
     </row>
     <row r="50" spans="1:3" ht="20">
       <c r="A50" s="22" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B50" s="18"/>
       <c r="C50" s="3">
@@ -16855,7 +16772,7 @@
     </row>
     <row r="51" spans="1:3" ht="20">
       <c r="A51" s="22" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B51" s="18"/>
       <c r="C51" s="3">
@@ -16864,7 +16781,7 @@
     </row>
     <row r="52" spans="1:3" ht="19">
       <c r="A52" s="22" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B52" s="18"/>
       <c r="C52" s="3">
@@ -16873,7 +16790,7 @@
     </row>
     <row r="53" spans="1:3" ht="19">
       <c r="A53" s="22" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B53" s="18"/>
       <c r="C53" s="3">
@@ -16882,7 +16799,7 @@
     </row>
     <row r="54" spans="1:3" ht="19">
       <c r="A54" s="22" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B54" s="18"/>
       <c r="C54" s="3">
@@ -16891,7 +16808,7 @@
     </row>
     <row r="55" spans="1:3" ht="19">
       <c r="A55" s="22" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B55" s="18"/>
       <c r="C55" s="3">
@@ -16900,7 +16817,7 @@
     </row>
     <row r="56" spans="1:3" ht="19">
       <c r="A56" s="22" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B56" s="18"/>
       <c r="C56" s="3">
@@ -16909,7 +16826,7 @@
     </row>
     <row r="57" spans="1:3" ht="19">
       <c r="A57" s="22" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B57" s="18"/>
       <c r="C57" s="3">
@@ -16918,7 +16835,7 @@
     </row>
     <row r="58" spans="1:3" ht="20">
       <c r="A58" s="22" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B58" s="18"/>
       <c r="C58" s="3">
@@ -16927,7 +16844,7 @@
     </row>
     <row r="59" spans="1:3" ht="20">
       <c r="A59" s="22" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B59" s="18"/>
       <c r="C59" s="3">
@@ -16936,7 +16853,7 @@
     </row>
     <row r="60" spans="1:3" ht="20">
       <c r="A60" s="22" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B60" s="18"/>
       <c r="C60" s="3">
@@ -16945,7 +16862,7 @@
     </row>
     <row r="61" spans="1:3" ht="20">
       <c r="A61" s="22" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B61" s="18"/>
       <c r="C61" s="3">
@@ -16954,7 +16871,7 @@
     </row>
     <row r="62" spans="1:3" ht="20">
       <c r="A62" s="22" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B62" s="18"/>
       <c r="C62" s="3">
@@ -16963,7 +16880,7 @@
     </row>
     <row r="63" spans="1:3" ht="20">
       <c r="A63" s="22" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B63" s="18"/>
       <c r="C63" s="3">
@@ -16972,7 +16889,7 @@
     </row>
     <row r="64" spans="1:3" ht="20">
       <c r="A64" s="22" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B64" s="18"/>
       <c r="C64" s="3">
@@ -16981,7 +16898,7 @@
     </row>
     <row r="65" spans="1:3" ht="20">
       <c r="A65" s="22" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B65" s="18"/>
       <c r="C65" s="3">
@@ -16990,7 +16907,7 @@
     </row>
     <row r="66" spans="1:3" ht="20">
       <c r="A66" s="22" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B66" s="18"/>
       <c r="C66" s="3">
@@ -16999,7 +16916,7 @@
     </row>
     <row r="67" spans="1:3" ht="20">
       <c r="A67" s="22" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B67" s="18"/>
       <c r="C67" s="3">
@@ -17008,7 +16925,7 @@
     </row>
     <row r="68" spans="1:3" ht="20">
       <c r="A68" s="22" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B68" s="18"/>
       <c r="C68" s="3">
@@ -17017,7 +16934,7 @@
     </row>
     <row r="69" spans="1:3" ht="20">
       <c r="A69" s="22" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B69" s="18"/>
       <c r="C69" s="3">
@@ -17026,7 +16943,7 @@
     </row>
     <row r="70" spans="1:3" ht="20">
       <c r="A70" s="22" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B70" s="18"/>
       <c r="C70" s="3">
@@ -17035,7 +16952,7 @@
     </row>
     <row r="71" spans="1:3" ht="20">
       <c r="A71" s="22" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B71" s="18"/>
       <c r="C71" s="3">
@@ -17044,7 +16961,7 @@
     </row>
     <row r="72" spans="1:3" ht="20">
       <c r="A72" s="23" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B72" s="24"/>
       <c r="C72" s="25">
@@ -17053,7 +16970,7 @@
     </row>
     <row r="73" spans="1:3" ht="19">
       <c r="A73" s="23" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B73" s="24"/>
       <c r="C73" s="25">
@@ -17062,7 +16979,7 @@
     </row>
     <row r="74" spans="1:3" ht="19">
       <c r="A74" s="23" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B74" s="24"/>
       <c r="C74" s="25">
@@ -17071,7 +16988,7 @@
     </row>
     <row r="75" spans="1:3" ht="19">
       <c r="A75" s="23" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B75" s="24"/>
       <c r="C75" s="25">
@@ -17080,7 +16997,7 @@
     </row>
     <row r="76" spans="1:3" ht="19">
       <c r="A76" s="23" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B76" s="24"/>
       <c r="C76" s="25">
@@ -17089,7 +17006,7 @@
     </row>
     <row r="77" spans="1:3" ht="19">
       <c r="A77" s="23" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B77" s="24"/>
       <c r="C77" s="25">
@@ -17098,7 +17015,7 @@
     </row>
     <row r="78" spans="1:3" ht="19">
       <c r="A78" s="23" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B78" s="24"/>
       <c r="C78" s="25">
@@ -17107,7 +17024,7 @@
     </row>
     <row r="79" spans="1:3" ht="19">
       <c r="A79" s="23" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B79" s="24"/>
       <c r="C79" s="25">
@@ -17116,7 +17033,7 @@
     </row>
     <row r="80" spans="1:3" ht="19">
       <c r="A80" s="23" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="B80" s="24"/>
       <c r="C80" s="25">
@@ -17125,7 +17042,7 @@
     </row>
     <row r="81" spans="1:3" ht="19">
       <c r="A81" s="23" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B81" s="24"/>
       <c r="C81" s="25">
@@ -17134,7 +17051,7 @@
     </row>
     <row r="82" spans="1:3" ht="19">
       <c r="A82" s="23" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B82" s="24"/>
       <c r="C82" s="25">
@@ -17143,7 +17060,7 @@
     </row>
     <row r="83" spans="1:3" ht="19">
       <c r="A83" s="23" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B83" s="24"/>
       <c r="C83" s="25">
@@ -17152,7 +17069,7 @@
     </row>
     <row r="84" spans="1:3" ht="19">
       <c r="A84" s="23" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B84" s="24"/>
       <c r="C84" s="25">
@@ -17161,7 +17078,7 @@
     </row>
     <row r="85" spans="1:3" ht="19">
       <c r="A85" s="23" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B85" s="24"/>
       <c r="C85" s="25">
@@ -17170,7 +17087,7 @@
     </row>
     <row r="86" spans="1:3" ht="19">
       <c r="A86" s="23" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B86" s="24"/>
       <c r="C86" s="25">
@@ -17179,7 +17096,7 @@
     </row>
     <row r="87" spans="1:3" ht="19">
       <c r="A87" s="23" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B87" s="24"/>
       <c r="C87" s="25">
@@ -17188,7 +17105,7 @@
     </row>
     <row r="88" spans="1:3" ht="19">
       <c r="A88" s="23" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B88" s="24"/>
       <c r="C88" s="25">
@@ -17197,7 +17114,7 @@
     </row>
     <row r="89" spans="1:3" ht="19">
       <c r="A89" s="23" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B89" s="24"/>
       <c r="C89" s="25">
@@ -17206,7 +17123,7 @@
     </row>
     <row r="90" spans="1:3" ht="19">
       <c r="A90" s="23" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B90" s="24"/>
       <c r="C90" s="25">
@@ -17215,7 +17132,7 @@
     </row>
     <row r="91" spans="1:3" ht="19">
       <c r="A91" s="23" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B91" s="24"/>
       <c r="C91" s="25">
@@ -17224,7 +17141,7 @@
     </row>
     <row r="92" spans="1:3" ht="20">
       <c r="A92" s="16" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B92" s="19"/>
       <c r="C92" s="7">
@@ -17233,7 +17150,7 @@
     </row>
     <row r="93" spans="1:3" ht="20">
       <c r="A93" s="16" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B93" s="19"/>
       <c r="C93" s="7">
@@ -17242,7 +17159,7 @@
     </row>
     <row r="94" spans="1:3" ht="20">
       <c r="A94" s="16" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B94" s="19"/>
       <c r="C94" s="7">
@@ -17251,7 +17168,7 @@
     </row>
     <row r="95" spans="1:3" ht="20">
       <c r="A95" s="16" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B95" s="19"/>
       <c r="C95" s="7">
@@ -17260,7 +17177,7 @@
     </row>
     <row r="96" spans="1:3" ht="20">
       <c r="A96" s="16" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B96" s="19"/>
       <c r="C96" s="7">
@@ -17269,7 +17186,7 @@
     </row>
     <row r="97" spans="1:3" ht="19">
       <c r="A97" s="16" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B97" s="19"/>
       <c r="C97" s="7">
@@ -17278,7 +17195,7 @@
     </row>
     <row r="98" spans="1:3" ht="20">
       <c r="A98" s="16" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B98" s="19"/>
       <c r="C98" s="7">
@@ -17287,7 +17204,7 @@
     </row>
     <row r="99" spans="1:3" ht="20">
       <c r="A99" s="16" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B99" s="19"/>
       <c r="C99" s="7">
@@ -17296,7 +17213,7 @@
     </row>
     <row r="100" spans="1:3" ht="20">
       <c r="A100" s="16" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B100" s="19"/>
       <c r="C100" s="7">
@@ -17305,7 +17222,7 @@
     </row>
     <row r="101" spans="1:3" ht="20">
       <c r="A101" s="16" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B101" s="19"/>
       <c r="C101" s="7">
@@ -17314,7 +17231,7 @@
     </row>
     <row r="102" spans="1:3" ht="20">
       <c r="A102" s="16" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B102" s="19"/>
       <c r="C102" s="7">
@@ -17323,7 +17240,7 @@
     </row>
     <row r="103" spans="1:3" ht="20">
       <c r="A103" s="16" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B103" s="19"/>
       <c r="C103" s="7">
@@ -17332,7 +17249,7 @@
     </row>
     <row r="104" spans="1:3" ht="20">
       <c r="A104" s="16" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B104" s="19"/>
       <c r="C104" s="7">

--- a/data/jk_cwshd_required_test.xlsx
+++ b/data/jk_cwshd_required_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D3B83A-3299-664A-942B-48F5D32A51EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553A4DF5-567B-BF45-BA85-D6D11620CB90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="500" windowWidth="27220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="27220" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="credit_none" sheetId="2" r:id="rId1"/>
@@ -11847,8 +11847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA402FE-2170-234C-BFCB-80F823858BAC}">
   <dimension ref="A1:F351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView topLeftCell="A130" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A138" sqref="A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -15308,8 +15308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DA53EC-1037-824F-AE67-3CD7020CE1C6}">
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>

--- a/data/jk_cwshd_required_test.xlsx
+++ b/data/jk_cwshd_required_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553A4DF5-567B-BF45-BA85-D6D11620CB90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5A8124-283D-7A4B-BAE1-3CD26A927265}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="27220" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15308,8 +15308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DA53EC-1037-824F-AE67-3CD7020CE1C6}">
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -16275,7 +16275,7 @@
       </c>
       <c r="B103" s="19"/>
       <c r="C103" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="20">
